--- a/Data Skripsi berurut.xlsx
+++ b/Data Skripsi berurut.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="20490" windowHeight="6885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -19,9 +19,15 @@
     <t>P262</t>
   </si>
   <si>
+    <t>Narko</t>
+  </si>
+  <si>
     <t>p203</t>
   </si>
   <si>
+    <t>narko</t>
+  </si>
+  <si>
     <t>p29</t>
   </si>
   <si>
@@ -343,6 +349,9 @@
     <t>p101</t>
   </si>
   <si>
+    <t>psiko</t>
+  </si>
+  <si>
     <t>p71</t>
   </si>
   <si>
@@ -352,6 +361,9 @@
     <t>p18</t>
   </si>
   <si>
+    <t>Psiko</t>
+  </si>
+  <si>
     <t>p144</t>
   </si>
   <si>
@@ -625,6 +637,9 @@
     <t>P56</t>
   </si>
   <si>
+    <t>Zat Adiktif</t>
+  </si>
+  <si>
     <t>p206</t>
   </si>
   <si>
@@ -854,33 +869,24 @@
   </si>
   <si>
     <t>p58</t>
-  </si>
-  <si>
-    <t>Narko</t>
-  </si>
-  <si>
-    <t>narko</t>
-  </si>
-  <si>
-    <t>psiko</t>
-  </si>
-  <si>
-    <t>Psiko</t>
-  </si>
-  <si>
-    <t>Zat Adiktif</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -888,19 +894,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -923,9 +1266,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -933,11 +1518,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1220,19 +1857,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="2:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -1350,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -1358,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>0.5</v>
@@ -1412,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>281</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1420,7 +2062,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -1474,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1482,7 +2124,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1536,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1544,7 +2186,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>0.5</v>
@@ -1598,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>281</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1606,7 +2248,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>0.75</v>
@@ -1660,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>281</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1668,7 +2310,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>0.25</v>
@@ -1722,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1730,7 +2372,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>0.25</v>
@@ -1784,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1792,7 +2434,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>0.25</v>
@@ -1846,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1854,7 +2496,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>0.5</v>
@@ -1908,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1916,7 +2558,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>0.25</v>
@@ -1970,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>281</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1978,7 +2620,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>0.25</v>
@@ -2032,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -2040,7 +2682,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>0.25</v>
@@ -2094,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -2102,7 +2744,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2156,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -2164,7 +2806,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>0.25</v>
@@ -2218,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -2226,7 +2868,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>0.25</v>
@@ -2280,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -2288,7 +2930,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>0.25</v>
@@ -2342,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -2350,7 +2992,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>0.25</v>
@@ -2404,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -2412,7 +3054,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>0.75</v>
@@ -2466,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2474,7 +3116,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2528,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2536,7 +3178,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2590,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2598,7 +3240,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>0.5</v>
@@ -2652,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2660,7 +3302,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2714,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2722,7 +3364,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C25">
         <v>0.5</v>
@@ -2776,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2784,7 +3426,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>0.25</v>
@@ -2838,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2846,7 +3488,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>0.75</v>
@@ -2900,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2908,7 +3550,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>0.75</v>
@@ -2962,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2970,7 +3612,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C29">
         <v>0.75</v>
@@ -3024,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -3032,7 +3674,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>0.5</v>
@@ -3086,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -3094,7 +3736,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C31">
         <v>0.75</v>
@@ -3148,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -3156,7 +3798,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3210,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -3218,7 +3860,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C33">
         <v>0.75</v>
@@ -3272,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -3280,7 +3922,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C34">
         <v>0.5</v>
@@ -3334,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -3342,7 +3984,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>0.5</v>
@@ -3396,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -3404,7 +4046,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C36">
         <v>0.75</v>
@@ -3458,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -3466,7 +4108,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C37">
         <v>0.25</v>
@@ -3520,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -3528,7 +4170,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C38">
         <v>0.25</v>
@@ -3582,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -3590,7 +4232,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C39">
         <v>0.75</v>
@@ -3644,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -3652,7 +4294,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C40">
         <v>0.25</v>
@@ -3706,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -3714,7 +4356,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C41">
         <v>0.75</v>
@@ -3768,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -3776,7 +4418,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C42">
         <v>0.75</v>
@@ -3830,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -3838,7 +4480,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C43">
         <v>0.75</v>
@@ -3892,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -3900,7 +4542,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C44">
         <v>0.75</v>
@@ -3954,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -3962,7 +4604,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -4016,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -4024,7 +4666,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C46">
         <v>0.25</v>
@@ -4078,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -4086,7 +4728,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C47">
         <v>0.25</v>
@@ -4140,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="T47" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -4148,7 +4790,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C48">
         <v>0.5</v>
@@ -4202,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="T48" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -4210,7 +4852,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C49">
         <v>0.75</v>
@@ -4264,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="T49" t="s">
-        <v>281</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -4272,7 +4914,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C50">
         <v>0.25</v>
@@ -4326,7 +4968,7 @@
         <v>0</v>
       </c>
       <c r="T50" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -4334,7 +4976,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C51">
         <v>0.5</v>
@@ -4388,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="T51" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -4396,7 +5038,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C52">
         <v>0.75</v>
@@ -4450,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="T52" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -4458,7 +5100,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C53">
         <v>0.5</v>
@@ -4512,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="T53" t="s">
-        <v>281</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -4520,7 +5162,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C54">
         <v>0.75</v>
@@ -4574,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="T54" t="s">
-        <v>281</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -4582,7 +5224,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4636,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="T55" t="s">
-        <v>281</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -4644,7 +5286,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4698,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="T56" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -4706,7 +5348,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C57">
         <v>0.25</v>
@@ -4760,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="T57" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -4768,7 +5410,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C58">
         <v>0.75</v>
@@ -4822,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="T58" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -4830,7 +5472,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C59">
         <v>0.75</v>
@@ -4884,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="T59" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -4892,7 +5534,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C60">
         <v>0.25</v>
@@ -4946,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="T60" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -4954,7 +5596,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C61">
         <v>0.25</v>
@@ -5008,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="T61" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -5016,7 +5658,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C62">
         <v>0.25</v>
@@ -5070,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="T62" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -5078,7 +5720,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C63">
         <v>0.25</v>
@@ -5132,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="T63" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -5140,7 +5782,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C64">
         <v>0.75</v>
@@ -5194,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="T64" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -5202,7 +5844,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C65">
         <v>0.5</v>
@@ -5256,7 +5898,7 @@
         <v>0</v>
       </c>
       <c r="T65" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -5264,7 +5906,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C66">
         <v>0.75</v>
@@ -5318,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="T66" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -5326,7 +5968,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -5380,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="T67" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -5388,7 +6030,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C68">
         <v>0.75</v>
@@ -5442,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="T68" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -5450,7 +6092,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C69">
         <v>0.75</v>
@@ -5504,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="T69" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -5512,7 +6154,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C70">
         <v>0.5</v>
@@ -5566,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="T70" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -5574,7 +6216,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C71">
         <v>0.5</v>
@@ -5628,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="T71" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -5636,7 +6278,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C72">
         <v>0.5</v>
@@ -5690,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="T72" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -5698,7 +6340,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C73">
         <v>0.75</v>
@@ -5752,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="T73" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -5760,7 +6402,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C74">
         <v>0.75</v>
@@ -5814,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="T74" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -5822,7 +6464,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -5876,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="T75" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -5884,7 +6526,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C76">
         <v>0.75</v>
@@ -5938,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="T76" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -5946,7 +6588,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C77">
         <v>0.25</v>
@@ -6000,7 +6642,7 @@
         <v>0</v>
       </c>
       <c r="T77" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -6008,7 +6650,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C78">
         <v>0.75</v>
@@ -6062,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="T78" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -6070,7 +6712,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C79">
         <v>0.5</v>
@@ -6124,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="T79" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -6132,7 +6774,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C80">
         <v>0.75</v>
@@ -6186,7 +6828,7 @@
         <v>0</v>
       </c>
       <c r="T80" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -6194,7 +6836,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C81">
         <v>0.75</v>
@@ -6248,7 +6890,7 @@
         <v>0</v>
       </c>
       <c r="T81" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -6256,7 +6898,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C82">
         <v>0.75</v>
@@ -6310,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="T82" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -6318,7 +6960,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -6372,7 +7014,7 @@
         <v>0</v>
       </c>
       <c r="T83" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -6380,7 +7022,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -6434,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="T84" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -6442,7 +7084,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C85">
         <v>0.75</v>
@@ -6496,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="T85" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -6504,7 +7146,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -6558,7 +7200,7 @@
         <v>0</v>
       </c>
       <c r="T86" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -6566,7 +7208,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C87">
         <v>0.5</v>
@@ -6620,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="T87" t="s">
-        <v>281</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -6628,7 +7270,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C88">
         <v>0.5</v>
@@ -6682,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="T88" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -6690,7 +7332,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C89">
         <v>0.75</v>
@@ -6744,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="T89" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -6752,7 +7394,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -6806,7 +7448,7 @@
         <v>0</v>
       </c>
       <c r="T90" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -6814,7 +7456,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -6868,7 +7510,7 @@
         <v>0</v>
       </c>
       <c r="T91" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -6876,7 +7518,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C92">
         <v>0.5</v>
@@ -6930,7 +7572,7 @@
         <v>0</v>
       </c>
       <c r="T92" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -6938,7 +7580,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C93">
         <v>0.25</v>
@@ -6992,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="T93" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -7000,7 +7642,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C94">
         <v>0.25</v>
@@ -7054,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="T94" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -7062,7 +7704,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C95">
         <v>0.25</v>
@@ -7116,7 +7758,7 @@
         <v>0</v>
       </c>
       <c r="T95" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -7124,7 +7766,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C96">
         <v>0.75</v>
@@ -7178,7 +7820,7 @@
         <v>0</v>
       </c>
       <c r="T96" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -7186,7 +7828,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C97">
         <v>0.5</v>
@@ -7240,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="T97" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -7248,7 +7890,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C98">
         <v>0.5</v>
@@ -7302,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="T98" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -7310,7 +7952,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C99">
         <v>0.5</v>
@@ -7364,7 +8006,7 @@
         <v>0</v>
       </c>
       <c r="T99" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -7372,7 +8014,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C100">
         <v>0.75</v>
@@ -7426,7 +8068,7 @@
         <v>0</v>
       </c>
       <c r="T100" t="s">
-        <v>281</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -7434,7 +8076,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -7488,7 +8130,7 @@
         <v>0</v>
       </c>
       <c r="T101" t="s">
-        <v>281</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -7496,7 +8138,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C102">
         <v>0.75</v>
@@ -7550,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="T102" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:20">
@@ -7558,7 +8200,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C103">
         <v>0.75</v>
@@ -7612,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="T103" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:20">
@@ -7620,7 +8262,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C104">
         <v>0.5</v>
@@ -7674,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="T104" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:20">
@@ -7682,7 +8324,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C105">
         <v>0.75</v>
@@ -7736,7 +8378,7 @@
         <v>0</v>
       </c>
       <c r="T105" t="s">
-        <v>281</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:20">
@@ -7744,7 +8386,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C106">
         <v>0.5</v>
@@ -7798,7 +8440,7 @@
         <v>0</v>
       </c>
       <c r="T106" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:20">
@@ -7806,7 +8448,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -7860,7 +8502,7 @@
         <v>0</v>
       </c>
       <c r="T107" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:20">
@@ -7868,7 +8510,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C108">
         <v>0.25</v>
@@ -7922,7 +8564,7 @@
         <v>0</v>
       </c>
       <c r="T108" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:20">
@@ -7930,7 +8572,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C109">
         <v>0.75</v>
@@ -7984,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="T109" t="s">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:20">
@@ -7992,7 +8634,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C110">
         <v>0.75</v>
@@ -8046,7 +8688,7 @@
         <v>0</v>
       </c>
       <c r="T110" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:20">
@@ -8054,7 +8696,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C111">
         <v>0.25</v>
@@ -8108,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="T111" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:20">
@@ -8116,7 +8758,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C112">
         <v>0.5</v>
@@ -8170,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="T112" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:20">
@@ -8178,7 +8820,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C113">
         <v>0.25</v>
@@ -8232,7 +8874,7 @@
         <v>0</v>
       </c>
       <c r="T113" t="s">
-        <v>283</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:20">
@@ -8240,7 +8882,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C114">
         <v>0.75</v>
@@ -8294,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="T114" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115" spans="1:20">
@@ -8302,7 +8944,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C115">
         <v>0.75</v>
@@ -8356,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="T115" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116" spans="1:20">
@@ -8364,7 +9006,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -8418,7 +9060,7 @@
         <v>0</v>
       </c>
       <c r="T116" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="1:20">
@@ -8426,7 +9068,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C117">
         <v>0.5</v>
@@ -8480,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="T117" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" spans="1:20">
@@ -8488,7 +9130,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C118">
         <v>0.25</v>
@@ -8542,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="T118" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="119" spans="1:20">
@@ -8550,7 +9192,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -8604,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="T119" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="120" spans="1:20">
@@ -8612,7 +9254,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C120">
         <v>0.25</v>
@@ -8666,7 +9308,7 @@
         <v>0</v>
       </c>
       <c r="T120" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="121" spans="1:20">
@@ -8674,7 +9316,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C121">
         <v>0.25</v>
@@ -8728,7 +9370,7 @@
         <v>0</v>
       </c>
       <c r="T121" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="122" spans="1:20">
@@ -8736,7 +9378,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C122">
         <v>0.5</v>
@@ -8790,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="T122" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="123" spans="1:20">
@@ -8798,7 +9440,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C123">
         <v>0.25</v>
@@ -8852,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="T123" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="124" spans="1:20">
@@ -8860,7 +9502,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C124">
         <v>0.25</v>
@@ -8914,7 +9556,7 @@
         <v>0</v>
       </c>
       <c r="T124" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="125" spans="1:20">
@@ -8922,7 +9564,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C125">
         <v>0.25</v>
@@ -8976,7 +9618,7 @@
         <v>0</v>
       </c>
       <c r="T125" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="126" spans="1:20">
@@ -8984,7 +9626,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C126">
         <v>0.5</v>
@@ -9038,7 +9680,7 @@
         <v>0</v>
       </c>
       <c r="T126" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="127" spans="1:20">
@@ -9046,7 +9688,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C127">
         <v>0.5</v>
@@ -9100,7 +9742,7 @@
         <v>0</v>
       </c>
       <c r="T127" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="128" spans="1:20">
@@ -9108,7 +9750,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C128">
         <v>0.75</v>
@@ -9162,7 +9804,7 @@
         <v>0</v>
       </c>
       <c r="T128" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="129" spans="1:20">
@@ -9170,7 +9812,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C129">
         <v>0.75</v>
@@ -9224,7 +9866,7 @@
         <v>0</v>
       </c>
       <c r="T129" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="130" spans="1:20">
@@ -9232,7 +9874,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9286,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="T130" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="131" spans="1:20">
@@ -9294,7 +9936,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C131">
         <v>0.75</v>
@@ -9348,7 +9990,7 @@
         <v>0</v>
       </c>
       <c r="T131" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="132" spans="1:20">
@@ -9356,7 +9998,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -9410,7 +10052,7 @@
         <v>0</v>
       </c>
       <c r="T132" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="133" spans="1:20">
@@ -9418,7 +10060,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C133">
         <v>0.75</v>
@@ -9472,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="T133" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="134" spans="1:20">
@@ -9480,7 +10122,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C134">
         <v>0.75</v>
@@ -9534,7 +10176,7 @@
         <v>0</v>
       </c>
       <c r="T134" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="135" spans="1:20">
@@ -9542,7 +10184,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -9596,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="T135" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="136" spans="1:20">
@@ -9604,7 +10246,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C136">
         <v>0.75</v>
@@ -9658,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="T136" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="137" spans="1:20">
@@ -9666,7 +10308,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C137">
         <v>0.5</v>
@@ -9720,7 +10362,7 @@
         <v>0</v>
       </c>
       <c r="T137" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="138" spans="1:20">
@@ -9728,7 +10370,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -9782,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="T138" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="139" spans="1:20">
@@ -9790,7 +10432,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C139">
         <v>0.5</v>
@@ -9844,7 +10486,7 @@
         <v>0</v>
       </c>
       <c r="T139" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="140" spans="1:20">
@@ -9852,7 +10494,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C140">
         <v>0.75</v>
@@ -9906,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="T140" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="141" spans="1:20">
@@ -9914,7 +10556,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C141">
         <v>0.25</v>
@@ -9968,7 +10610,7 @@
         <v>0</v>
       </c>
       <c r="T141" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="142" spans="1:20">
@@ -9976,7 +10618,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C142">
         <v>0.75</v>
@@ -10030,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="T142" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="143" spans="1:20">
@@ -10038,7 +10680,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C143">
         <v>0.75</v>
@@ -10092,7 +10734,7 @@
         <v>1</v>
       </c>
       <c r="T143" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="144" spans="1:20">
@@ -10100,7 +10742,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C144">
         <v>0.75</v>
@@ -10154,7 +10796,7 @@
         <v>0</v>
       </c>
       <c r="T144" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="145" spans="1:20">
@@ -10162,7 +10804,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C145">
         <v>0.25</v>
@@ -10216,7 +10858,7 @@
         <v>0</v>
       </c>
       <c r="T145" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="146" spans="1:20">
@@ -10224,7 +10866,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10278,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="T146" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="147" spans="1:20">
@@ -10286,7 +10928,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C147">
         <v>0.75</v>
@@ -10340,7 +10982,7 @@
         <v>0</v>
       </c>
       <c r="T147" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="148" spans="1:20">
@@ -10348,7 +10990,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C148">
         <v>0.5</v>
@@ -10402,7 +11044,7 @@
         <v>0</v>
       </c>
       <c r="T148" t="s">
-        <v>283</v>
+        <v>115</v>
       </c>
     </row>
     <row r="149" spans="1:20">
@@ -10410,7 +11052,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C149">
         <v>0.75</v>
@@ -10464,7 +11106,7 @@
         <v>0</v>
       </c>
       <c r="T149" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="150" spans="1:20">
@@ -10472,7 +11114,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C150">
         <v>0.75</v>
@@ -10526,7 +11168,7 @@
         <v>0</v>
       </c>
       <c r="T150" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="151" spans="1:20">
@@ -10534,7 +11176,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C151">
         <v>0.75</v>
@@ -10588,7 +11230,7 @@
         <v>0</v>
       </c>
       <c r="T151" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="152" spans="1:20">
@@ -10596,7 +11238,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C152">
         <v>0.75</v>
@@ -10650,7 +11292,7 @@
         <v>0</v>
       </c>
       <c r="T152" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="153" spans="1:20">
@@ -10658,7 +11300,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C153">
         <v>0.25</v>
@@ -10712,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="T153" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="154" spans="1:20">
@@ -10720,7 +11362,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C154">
         <v>0.75</v>
@@ -10774,7 +11416,7 @@
         <v>0</v>
       </c>
       <c r="T154" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="155" spans="1:20">
@@ -10782,7 +11424,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C155">
         <v>0.75</v>
@@ -10836,7 +11478,7 @@
         <v>0</v>
       </c>
       <c r="T155" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="156" spans="1:20">
@@ -10844,7 +11486,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C156">
         <v>0.75</v>
@@ -10898,7 +11540,7 @@
         <v>0</v>
       </c>
       <c r="T156" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="157" spans="1:20">
@@ -10906,7 +11548,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C157">
         <v>0.25</v>
@@ -10960,7 +11602,7 @@
         <v>0</v>
       </c>
       <c r="T157" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="158" spans="1:20">
@@ -10968,7 +11610,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C158">
         <v>0.75</v>
@@ -11022,7 +11664,7 @@
         <v>0</v>
       </c>
       <c r="T158" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="159" spans="1:20">
@@ -11030,7 +11672,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C159">
         <v>0.75</v>
@@ -11084,7 +11726,7 @@
         <v>0</v>
       </c>
       <c r="T159" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="160" spans="1:20">
@@ -11092,7 +11734,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C160">
         <v>0.75</v>
@@ -11146,7 +11788,7 @@
         <v>0</v>
       </c>
       <c r="T160" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="161" spans="1:20">
@@ -11154,7 +11796,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C161">
         <v>0.75</v>
@@ -11208,7 +11850,7 @@
         <v>0</v>
       </c>
       <c r="T161" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="162" spans="1:20">
@@ -11216,7 +11858,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C162">
         <v>0.5</v>
@@ -11270,7 +11912,7 @@
         <v>0</v>
       </c>
       <c r="T162" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="163" spans="1:20">
@@ -11278,7 +11920,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C163">
         <v>0.25</v>
@@ -11332,7 +11974,7 @@
         <v>0</v>
       </c>
       <c r="T163" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="164" spans="1:20">
@@ -11340,7 +11982,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C164">
         <v>0.25</v>
@@ -11394,7 +12036,7 @@
         <v>1</v>
       </c>
       <c r="T164" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="165" spans="1:20">
@@ -11402,7 +12044,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -11456,7 +12098,7 @@
         <v>0</v>
       </c>
       <c r="T165" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="166" spans="1:20">
@@ -11464,7 +12106,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C166">
         <v>0.75</v>
@@ -11518,7 +12160,7 @@
         <v>0</v>
       </c>
       <c r="T166" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="167" spans="1:20">
@@ -11526,7 +12168,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -11580,7 +12222,7 @@
         <v>0</v>
       </c>
       <c r="T167" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="168" spans="1:20">
@@ -11588,7 +12230,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -11642,7 +12284,7 @@
         <v>0</v>
       </c>
       <c r="T168" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="169" spans="1:20">
@@ -11650,7 +12292,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C169">
         <v>0.5</v>
@@ -11704,7 +12346,7 @@
         <v>0</v>
       </c>
       <c r="T169" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="170" spans="1:20">
@@ -11712,7 +12354,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C170">
         <v>0.75</v>
@@ -11766,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="T170" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="171" spans="1:20">
@@ -11774,7 +12416,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C171">
         <v>0.25</v>
@@ -11828,7 +12470,7 @@
         <v>0</v>
       </c>
       <c r="T171" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="172" spans="1:20">
@@ -11836,7 +12478,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C172">
         <v>0.5</v>
@@ -11890,7 +12532,7 @@
         <v>0</v>
       </c>
       <c r="T172" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="173" spans="1:20">
@@ -11898,7 +12540,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C173">
         <v>0.5</v>
@@ -11952,7 +12594,7 @@
         <v>0</v>
       </c>
       <c r="T173" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="174" spans="1:20">
@@ -11960,7 +12602,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C174">
         <v>0.75</v>
@@ -12014,7 +12656,7 @@
         <v>0</v>
       </c>
       <c r="T174" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="175" spans="1:20">
@@ -12022,7 +12664,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C175">
         <v>0.5</v>
@@ -12076,7 +12718,7 @@
         <v>0</v>
       </c>
       <c r="T175" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="176" spans="1:20">
@@ -12084,7 +12726,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C176">
         <v>0.75</v>
@@ -12138,7 +12780,7 @@
         <v>1</v>
       </c>
       <c r="T176" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="177" spans="1:20">
@@ -12146,7 +12788,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -12200,7 +12842,7 @@
         <v>0</v>
       </c>
       <c r="T177" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="178" spans="1:20">
@@ -12208,7 +12850,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -12262,7 +12904,7 @@
         <v>0</v>
       </c>
       <c r="T178" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="179" spans="1:20">
@@ -12270,7 +12912,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -12324,7 +12966,7 @@
         <v>0</v>
       </c>
       <c r="T179" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="180" spans="1:20">
@@ -12332,7 +12974,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C180">
         <v>0.25</v>
@@ -12386,7 +13028,7 @@
         <v>0</v>
       </c>
       <c r="T180" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="181" spans="1:20">
@@ -12394,7 +13036,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C181">
         <v>0.25</v>
@@ -12448,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="T181" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="182" spans="1:20">
@@ -12456,7 +13098,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C182">
         <v>0.75</v>
@@ -12510,7 +13152,7 @@
         <v>1</v>
       </c>
       <c r="T182" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="183" spans="1:20">
@@ -12518,7 +13160,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C183">
         <v>0.75</v>
@@ -12572,7 +13214,7 @@
         <v>0</v>
       </c>
       <c r="T183" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="184" spans="1:20">
@@ -12580,7 +13222,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C184">
         <v>0.25</v>
@@ -12634,7 +13276,7 @@
         <v>0</v>
       </c>
       <c r="T184" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="185" spans="1:20">
@@ -12642,7 +13284,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C185">
         <v>0.75</v>
@@ -12696,7 +13338,7 @@
         <v>0</v>
       </c>
       <c r="T185" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="186" spans="1:20">
@@ -12704,7 +13346,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C186">
         <v>0.75</v>
@@ -12758,7 +13400,7 @@
         <v>0</v>
       </c>
       <c r="T186" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="187" spans="1:20">
@@ -12766,7 +13408,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C187">
         <v>0.75</v>
@@ -12820,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="T187" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="188" spans="1:20">
@@ -12828,7 +13470,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C188">
         <v>0.5</v>
@@ -12882,7 +13524,7 @@
         <v>0</v>
       </c>
       <c r="T188" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="189" spans="1:20">
@@ -12890,7 +13532,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C189">
         <v>0.75</v>
@@ -12944,7 +13586,7 @@
         <v>0</v>
       </c>
       <c r="T189" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="190" spans="1:20">
@@ -12952,7 +13594,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -13006,7 +13648,7 @@
         <v>0</v>
       </c>
       <c r="T190" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="191" spans="1:20">
@@ -13014,7 +13656,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C191">
         <v>0.5</v>
@@ -13068,7 +13710,7 @@
         <v>0</v>
       </c>
       <c r="T191" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="192" spans="1:20">
@@ -13076,7 +13718,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -13130,7 +13772,7 @@
         <v>0</v>
       </c>
       <c r="T192" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="193" spans="1:20">
@@ -13138,7 +13780,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C193">
         <v>0.75</v>
@@ -13192,7 +13834,7 @@
         <v>0</v>
       </c>
       <c r="T193" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="194" spans="1:20">
@@ -13200,7 +13842,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C194">
         <v>0.25</v>
@@ -13254,7 +13896,7 @@
         <v>0</v>
       </c>
       <c r="T194" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="195" spans="1:20">
@@ -13262,7 +13904,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C195">
         <v>0.5</v>
@@ -13316,7 +13958,7 @@
         <v>0</v>
       </c>
       <c r="T195" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="196" spans="1:20">
@@ -13324,7 +13966,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -13378,7 +14020,7 @@
         <v>0</v>
       </c>
       <c r="T196" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="197" spans="1:20">
@@ -13386,7 +14028,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C197">
         <v>0.5</v>
@@ -13440,7 +14082,7 @@
         <v>0</v>
       </c>
       <c r="T197" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="198" spans="1:20">
@@ -13448,7 +14090,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C198">
         <v>0.75</v>
@@ -13502,7 +14144,7 @@
         <v>0</v>
       </c>
       <c r="T198" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="199" spans="1:20">
@@ -13510,7 +14152,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C199">
         <v>0.5</v>
@@ -13564,7 +14206,7 @@
         <v>0</v>
       </c>
       <c r="T199" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="200" spans="1:20">
@@ -13572,7 +14214,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C200">
         <v>0.75</v>
@@ -13626,7 +14268,7 @@
         <v>0</v>
       </c>
       <c r="T200" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="201" spans="1:20">
@@ -13634,7 +14276,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C201">
         <v>0.75</v>
@@ -13688,7 +14330,7 @@
         <v>0</v>
       </c>
       <c r="T201" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="202" spans="1:20">
@@ -13696,7 +14338,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C202">
         <v>0.25</v>
@@ -13750,7 +14392,7 @@
         <v>1</v>
       </c>
       <c r="T202" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="203" spans="1:20">
@@ -13758,7 +14400,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C203">
         <v>0.5</v>
@@ -13812,7 +14454,7 @@
         <v>0</v>
       </c>
       <c r="T203" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="204" spans="1:20">
@@ -13820,7 +14462,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C204">
         <v>0.25</v>
@@ -13874,7 +14516,7 @@
         <v>0</v>
       </c>
       <c r="T204" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="205" spans="1:20">
@@ -13882,7 +14524,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C205">
         <v>0.75</v>
@@ -13936,7 +14578,7 @@
         <v>1</v>
       </c>
       <c r="T205" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="206" spans="1:20">
@@ -13944,7 +14586,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C206">
         <v>0.75</v>
@@ -13998,7 +14640,7 @@
         <v>1</v>
       </c>
       <c r="T206" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="207" spans="1:20">
@@ -14006,7 +14648,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C207">
         <v>0.5</v>
@@ -14060,7 +14702,7 @@
         <v>0</v>
       </c>
       <c r="T207" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="208" spans="1:20">
@@ -14068,7 +14710,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C208">
         <v>0.5</v>
@@ -14122,7 +14764,7 @@
         <v>0</v>
       </c>
       <c r="T208" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:20">
@@ -14130,7 +14772,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C209">
         <v>0.75</v>
@@ -14184,7 +14826,7 @@
         <v>1</v>
       </c>
       <c r="T209" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="210" spans="1:20">
@@ -14192,7 +14834,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -14246,7 +14888,7 @@
         <v>0</v>
       </c>
       <c r="T210" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="211" spans="1:20">
@@ -14254,7 +14896,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C211">
         <v>0.75</v>
@@ -14308,7 +14950,7 @@
         <v>0</v>
       </c>
       <c r="T211" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="212" spans="1:20">
@@ -14316,7 +14958,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C212">
         <v>0.25</v>
@@ -14370,7 +15012,7 @@
         <v>0</v>
       </c>
       <c r="T212" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="213" spans="1:20">
@@ -14378,7 +15020,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C213">
         <v>0.75</v>
@@ -14432,7 +15074,7 @@
         <v>0</v>
       </c>
       <c r="T213" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="214" spans="1:20">
@@ -14440,7 +15082,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C214">
         <v>0.75</v>
@@ -14494,7 +15136,7 @@
         <v>1</v>
       </c>
       <c r="T214" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="215" spans="1:20">
@@ -14502,7 +15144,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C215">
         <v>0.5</v>
@@ -14556,7 +15198,7 @@
         <v>1</v>
       </c>
       <c r="T215" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="216" spans="1:20">
@@ -14564,7 +15206,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C216">
         <v>0.75</v>
@@ -14618,7 +15260,7 @@
         <v>0</v>
       </c>
       <c r="T216" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="217" spans="1:20">
@@ -14626,7 +15268,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C217">
         <v>0.75</v>
@@ -14680,7 +15322,7 @@
         <v>1</v>
       </c>
       <c r="T217" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="218" spans="1:20">
@@ -14688,7 +15330,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -14742,7 +15384,7 @@
         <v>0</v>
       </c>
       <c r="T218" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="219" spans="1:20">
@@ -14750,7 +15392,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C219">
         <v>0.75</v>
@@ -14804,7 +15446,7 @@
         <v>1</v>
       </c>
       <c r="T219" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="220" spans="1:20">
@@ -14812,7 +15454,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C220">
         <v>0.75</v>
@@ -14866,7 +15508,7 @@
         <v>1</v>
       </c>
       <c r="T220" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="221" spans="1:20">
@@ -14874,7 +15516,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -14928,7 +15570,7 @@
         <v>0</v>
       </c>
       <c r="T221" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="222" spans="1:20">
@@ -14936,7 +15578,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C222">
         <v>0.75</v>
@@ -14990,7 +15632,7 @@
         <v>1</v>
       </c>
       <c r="T222" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="223" spans="1:20">
@@ -14998,7 +15640,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C223">
         <v>0.75</v>
@@ -15052,7 +15694,7 @@
         <v>0</v>
       </c>
       <c r="T223" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="224" spans="1:20">
@@ -15060,7 +15702,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C224">
         <v>0.5</v>
@@ -15114,7 +15756,7 @@
         <v>0</v>
       </c>
       <c r="T224" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="225" spans="1:20">
@@ -15122,7 +15764,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -15176,7 +15818,7 @@
         <v>1</v>
       </c>
       <c r="T225" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="226" spans="1:20">
@@ -15184,7 +15826,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C226">
         <v>0.75</v>
@@ -15238,7 +15880,7 @@
         <v>1</v>
       </c>
       <c r="T226" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="227" spans="1:20">
@@ -15246,7 +15888,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C227">
         <v>0.75</v>
@@ -15300,7 +15942,7 @@
         <v>0</v>
       </c>
       <c r="T227" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="228" spans="1:20">
@@ -15308,7 +15950,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C228">
         <v>0.75</v>
@@ -15362,7 +16004,7 @@
         <v>1</v>
       </c>
       <c r="T228" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="229" spans="1:20">
@@ -15370,7 +16012,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C229">
         <v>0.75</v>
@@ -15424,7 +16066,7 @@
         <v>1</v>
       </c>
       <c r="T229" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="230" spans="1:20">
@@ -15432,7 +16074,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C230">
         <v>0.75</v>
@@ -15486,7 +16128,7 @@
         <v>0</v>
       </c>
       <c r="T230" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="231" spans="1:20">
@@ -15494,7 +16136,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C231">
         <v>0.75</v>
@@ -15548,7 +16190,7 @@
         <v>0</v>
       </c>
       <c r="T231" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="232" spans="1:20">
@@ -15556,7 +16198,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C232">
         <v>0.75</v>
@@ -15610,7 +16252,7 @@
         <v>0</v>
       </c>
       <c r="T232" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="233" spans="1:20">
@@ -15618,7 +16260,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C233">
         <v>0.75</v>
@@ -15672,7 +16314,7 @@
         <v>0</v>
       </c>
       <c r="T233" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="234" spans="1:20">
@@ -15680,7 +16322,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C234">
         <v>0.5</v>
@@ -15734,7 +16376,7 @@
         <v>1</v>
       </c>
       <c r="T234" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="235" spans="1:20">
@@ -15742,7 +16384,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C235">
         <v>0.75</v>
@@ -15796,7 +16438,7 @@
         <v>1</v>
       </c>
       <c r="T235" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="236" spans="1:20">
@@ -15804,7 +16446,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C236">
         <v>0.25</v>
@@ -15858,7 +16500,7 @@
         <v>1</v>
       </c>
       <c r="T236" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="237" spans="1:20">
@@ -15866,7 +16508,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C237">
         <v>0.75</v>
@@ -15920,7 +16562,7 @@
         <v>1</v>
       </c>
       <c r="T237" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="238" spans="1:20">
@@ -15928,7 +16570,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C238">
         <v>0.75</v>
@@ -15982,7 +16624,7 @@
         <v>1</v>
       </c>
       <c r="T238" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="239" spans="1:20">
@@ -15990,7 +16632,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C239">
         <v>0.5</v>
@@ -16044,7 +16686,7 @@
         <v>0</v>
       </c>
       <c r="T239" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="240" spans="1:20">
@@ -16052,7 +16694,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C240">
         <v>0.5</v>
@@ -16106,7 +16748,7 @@
         <v>1</v>
       </c>
       <c r="T240" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="241" spans="1:20">
@@ -16114,7 +16756,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C241">
         <v>0.75</v>
@@ -16168,7 +16810,7 @@
         <v>0</v>
       </c>
       <c r="T241" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="242" spans="1:20">
@@ -16176,7 +16818,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C242">
         <v>0.75</v>
@@ -16230,7 +16872,7 @@
         <v>1</v>
       </c>
       <c r="T242" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="243" spans="1:20">
@@ -16238,7 +16880,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C243">
         <v>0.5</v>
@@ -16292,7 +16934,7 @@
         <v>0</v>
       </c>
       <c r="T243" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="244" spans="1:20">
@@ -16300,7 +16942,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C244">
         <v>0.75</v>
@@ -16354,7 +16996,7 @@
         <v>1</v>
       </c>
       <c r="T244" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="245" spans="1:20">
@@ -16362,7 +17004,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C245">
         <v>0.5</v>
@@ -16416,7 +17058,7 @@
         <v>1</v>
       </c>
       <c r="T245" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="246" spans="1:20">
@@ -16424,7 +17066,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C246">
         <v>0.75</v>
@@ -16478,7 +17120,7 @@
         <v>1</v>
       </c>
       <c r="T246" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="247" spans="1:20">
@@ -16486,7 +17128,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C247">
         <v>0.5</v>
@@ -16540,7 +17182,7 @@
         <v>0</v>
       </c>
       <c r="T247" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="248" spans="1:20">
@@ -16548,7 +17190,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -16602,7 +17244,7 @@
         <v>0</v>
       </c>
       <c r="T248" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="249" spans="1:20">
@@ -16610,7 +17252,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -16664,7 +17306,7 @@
         <v>1</v>
       </c>
       <c r="T249" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="250" spans="1:20">
@@ -16672,7 +17314,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C250">
         <v>0.75</v>
@@ -16726,7 +17368,7 @@
         <v>1</v>
       </c>
       <c r="T250" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="251" spans="1:20">
@@ -16734,7 +17376,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C251">
         <v>0.75</v>
@@ -16788,7 +17430,7 @@
         <v>1</v>
       </c>
       <c r="T251" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="252" spans="1:20">
@@ -16796,7 +17438,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C252">
         <v>0.75</v>
@@ -16850,7 +17492,7 @@
         <v>1</v>
       </c>
       <c r="T252" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="253" spans="1:20">
@@ -16858,7 +17500,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C253">
         <v>0.75</v>
@@ -16912,7 +17554,7 @@
         <v>1</v>
       </c>
       <c r="T253" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="254" spans="1:20">
@@ -16920,7 +17562,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -16974,7 +17616,7 @@
         <v>1</v>
       </c>
       <c r="T254" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="255" spans="1:20">
@@ -16982,7 +17624,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C255">
         <v>0.75</v>
@@ -17036,7 +17678,7 @@
         <v>0</v>
       </c>
       <c r="T255" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="256" spans="1:20">
@@ -17044,7 +17686,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C256">
         <v>0.75</v>
@@ -17098,7 +17740,7 @@
         <v>1</v>
       </c>
       <c r="T256" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="257" spans="1:20">
@@ -17106,7 +17748,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C257">
         <v>0.75</v>
@@ -17160,7 +17802,7 @@
         <v>1</v>
       </c>
       <c r="T257" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="258" spans="1:20">
@@ -17168,7 +17810,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C258">
         <v>0.75</v>
@@ -17222,7 +17864,7 @@
         <v>1</v>
       </c>
       <c r="T258" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="259" spans="1:20">
@@ -17230,7 +17872,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C259">
         <v>0.5</v>
@@ -17284,7 +17926,7 @@
         <v>0</v>
       </c>
       <c r="T259" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="260" spans="1:20">
@@ -17292,7 +17934,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C260">
         <v>0.75</v>
@@ -17346,7 +17988,7 @@
         <v>1</v>
       </c>
       <c r="T260" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="261" spans="1:20">
@@ -17354,7 +17996,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C261">
         <v>0.75</v>
@@ -17408,7 +18050,7 @@
         <v>0</v>
       </c>
       <c r="T261" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="262" spans="1:20">
@@ -17416,7 +18058,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C262">
         <v>0.75</v>
@@ -17470,7 +18112,7 @@
         <v>1</v>
       </c>
       <c r="T262" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="263" spans="1:20">
@@ -17478,7 +18120,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C263">
         <v>0.75</v>
@@ -17532,7 +18174,7 @@
         <v>1</v>
       </c>
       <c r="T263" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="264" spans="1:20">
@@ -17540,7 +18182,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C264">
         <v>0.25</v>
@@ -17594,7 +18236,7 @@
         <v>1</v>
       </c>
       <c r="T264" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="265" spans="1:20">
@@ -17602,7 +18244,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C265">
         <v>0.25</v>
@@ -17656,7 +18298,7 @@
         <v>0</v>
       </c>
       <c r="T265" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="266" spans="1:20">
@@ -17664,7 +18306,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C266">
         <v>0.5</v>
@@ -17718,7 +18360,7 @@
         <v>1</v>
       </c>
       <c r="T266" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="267" spans="1:20">
@@ -17726,7 +18368,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C267">
         <v>0.5</v>
@@ -17780,7 +18422,7 @@
         <v>0</v>
       </c>
       <c r="T267" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="268" spans="1:20">
@@ -17788,7 +18430,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C268">
         <v>0.75</v>
@@ -17842,7 +18484,7 @@
         <v>0</v>
       </c>
       <c r="T268" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="269" spans="1:20">
@@ -17850,7 +18492,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C269">
         <v>0.5</v>
@@ -17904,7 +18546,7 @@
         <v>1</v>
       </c>
       <c r="T269" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="270" spans="1:20">
@@ -17912,7 +18554,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C270">
         <v>0.5</v>
@@ -17966,7 +18608,7 @@
         <v>1</v>
       </c>
       <c r="T270" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="271" spans="1:20">
@@ -17974,7 +18616,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C271">
         <v>0.25</v>
@@ -18028,7 +18670,7 @@
         <v>0</v>
       </c>
       <c r="T271" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="272" spans="1:20">
@@ -18036,7 +18678,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C272">
         <v>0.25</v>
@@ -18090,7 +18732,7 @@
         <v>1</v>
       </c>
       <c r="T272" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="273" spans="1:20">
@@ -18098,7 +18740,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C273">
         <v>0.25</v>
@@ -18152,7 +18794,7 @@
         <v>1</v>
       </c>
       <c r="T273" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="274" spans="1:20">
@@ -18160,7 +18802,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C274">
         <v>0.75</v>
@@ -18214,7 +18856,7 @@
         <v>0</v>
       </c>
       <c r="T274" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="275" spans="1:20">
@@ -18222,7 +18864,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C275">
         <v>0.75</v>
@@ -18276,7 +18918,7 @@
         <v>1</v>
       </c>
       <c r="T275" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="276" spans="1:20">
@@ -18284,7 +18926,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C276">
         <v>0.25</v>
@@ -18338,7 +18980,7 @@
         <v>0</v>
       </c>
       <c r="T276" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="277" spans="1:20">
@@ -18346,7 +18988,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C277">
         <v>0.5</v>
@@ -18400,7 +19042,7 @@
         <v>1</v>
       </c>
       <c r="T277" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="278" spans="1:20">
@@ -18408,7 +19050,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -18462,7 +19104,7 @@
         <v>0</v>
       </c>
       <c r="T278" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="279" spans="1:20">
@@ -18470,7 +19112,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C279">
         <v>0.5</v>
@@ -18524,7 +19166,7 @@
         <v>0</v>
       </c>
       <c r="T279" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="280" spans="1:20">
@@ -18532,7 +19174,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C280">
         <v>0.5</v>
@@ -18586,7 +19228,7 @@
         <v>1</v>
       </c>
       <c r="T280" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
     <row r="281" spans="1:20">
@@ -18594,7 +19236,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C281">
         <v>0.25</v>
@@ -18648,10 +19290,11 @@
         <v>1</v>
       </c>
       <c r="T281" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Data Skripsi berurut.xlsx
+++ b/Data Skripsi berurut.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="6885"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -19,874 +19,868 @@
     <t>P262</t>
   </si>
   <si>
+    <t>p203</t>
+  </si>
+  <si>
+    <t>p29</t>
+  </si>
+  <si>
+    <t>p120</t>
+  </si>
+  <si>
+    <t>p201</t>
+  </si>
+  <si>
+    <t>p28</t>
+  </si>
+  <si>
+    <t>p65</t>
+  </si>
+  <si>
+    <t>p239</t>
+  </si>
+  <si>
+    <t>p141</t>
+  </si>
+  <si>
+    <t>p180</t>
+  </si>
+  <si>
+    <t>p182</t>
+  </si>
+  <si>
+    <t>p51</t>
+  </si>
+  <si>
+    <t>p272</t>
+  </si>
+  <si>
+    <t>p276</t>
+  </si>
+  <si>
+    <t>P26</t>
+  </si>
+  <si>
+    <t>p188</t>
+  </si>
+  <si>
+    <t>p123</t>
+  </si>
+  <si>
+    <t>p34</t>
+  </si>
+  <si>
+    <t>p9</t>
+  </si>
+  <si>
+    <t>p207</t>
+  </si>
+  <si>
+    <t>p15</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>p233</t>
+  </si>
+  <si>
+    <t>p249</t>
+  </si>
+  <si>
+    <t>p264</t>
+  </si>
+  <si>
+    <t>p41</t>
+  </si>
+  <si>
+    <t>p196</t>
+  </si>
+  <si>
+    <t>p148</t>
+  </si>
+  <si>
+    <t>p84</t>
+  </si>
+  <si>
+    <t>p70</t>
+  </si>
+  <si>
+    <t>p154</t>
+  </si>
+  <si>
+    <t>P47</t>
+  </si>
+  <si>
+    <t>P137</t>
+  </si>
+  <si>
+    <t>p38</t>
+  </si>
+  <si>
+    <t>p158</t>
+  </si>
+  <si>
+    <t>p168</t>
+  </si>
+  <si>
+    <t>p57</t>
+  </si>
+  <si>
+    <t>p187</t>
+  </si>
+  <si>
+    <t>p218</t>
+  </si>
+  <si>
+    <t>p63</t>
+  </si>
+  <si>
+    <t>p258</t>
+  </si>
+  <si>
+    <t>p80</t>
+  </si>
+  <si>
+    <t>p96</t>
+  </si>
+  <si>
+    <t>p129</t>
+  </si>
+  <si>
+    <t>p174</t>
+  </si>
+  <si>
+    <t>p88</t>
+  </si>
+  <si>
+    <t>p78</t>
+  </si>
+  <si>
+    <t>p219</t>
+  </si>
+  <si>
+    <t>p210</t>
+  </si>
+  <si>
+    <t>p13</t>
+  </si>
+  <si>
+    <t>p278</t>
+  </si>
+  <si>
+    <t>p254</t>
+  </si>
+  <si>
+    <t>p109</t>
+  </si>
+  <si>
+    <t>p76</t>
+  </si>
+  <si>
+    <t>p117</t>
+  </si>
+  <si>
+    <t>p11</t>
+  </si>
+  <si>
+    <t>p54</t>
+  </si>
+  <si>
+    <t>p95</t>
+  </si>
+  <si>
+    <t>p30</t>
+  </si>
+  <si>
+    <t>p242</t>
+  </si>
+  <si>
+    <t>p108</t>
+  </si>
+  <si>
+    <t>p115</t>
+  </si>
+  <si>
+    <t>p185</t>
+  </si>
+  <si>
+    <t>p36</t>
+  </si>
+  <si>
+    <t>p235</t>
+  </si>
+  <si>
+    <t>p133</t>
+  </si>
+  <si>
+    <t>p251</t>
+  </si>
+  <si>
+    <t>p171</t>
+  </si>
+  <si>
+    <t>p102</t>
+  </si>
+  <si>
+    <t>p165</t>
+  </si>
+  <si>
+    <t>p119</t>
+  </si>
+  <si>
+    <t>P83</t>
+  </si>
+  <si>
+    <t>P228</t>
+  </si>
+  <si>
+    <t>P97</t>
+  </si>
+  <si>
+    <t>P21</t>
+  </si>
+  <si>
+    <t>P150</t>
+  </si>
+  <si>
+    <t>P260</t>
+  </si>
+  <si>
+    <t>P113</t>
+  </si>
+  <si>
+    <t>P39</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P81</t>
+  </si>
+  <si>
+    <t>P146</t>
+  </si>
+  <si>
+    <t>P269</t>
+  </si>
+  <si>
+    <t>P164</t>
+  </si>
+  <si>
+    <t>P253</t>
+  </si>
+  <si>
+    <t>P268</t>
+  </si>
+  <si>
+    <t>P27</t>
+  </si>
+  <si>
+    <t>P181</t>
+  </si>
+  <si>
+    <t>P114</t>
+  </si>
+  <si>
+    <t>P214</t>
+  </si>
+  <si>
+    <t>P229</t>
+  </si>
+  <si>
+    <t>P205</t>
+  </si>
+  <si>
+    <t>p194</t>
+  </si>
+  <si>
+    <t>p22</t>
+  </si>
+  <si>
+    <t>p167</t>
+  </si>
+  <si>
+    <t>p122</t>
+  </si>
+  <si>
+    <t>p244</t>
+  </si>
+  <si>
+    <t>p105</t>
+  </si>
+  <si>
+    <t>p74</t>
+  </si>
+  <si>
+    <t>p266</t>
+  </si>
+  <si>
+    <t>p91</t>
+  </si>
+  <si>
+    <t>p32</t>
+  </si>
+  <si>
+    <t>p162</t>
+  </si>
+  <si>
+    <t>p49</t>
+  </si>
+  <si>
+    <t>p131</t>
+  </si>
+  <si>
+    <t>p159</t>
+  </si>
+  <si>
+    <t>p245</t>
+  </si>
+  <si>
+    <t>p147</t>
+  </si>
+  <si>
+    <t>p101</t>
+  </si>
+  <si>
+    <t>p71</t>
+  </si>
+  <si>
+    <t>p79</t>
+  </si>
+  <si>
+    <t>p18</t>
+  </si>
+  <si>
+    <t>p144</t>
+  </si>
+  <si>
+    <t>p99</t>
+  </si>
+  <si>
+    <t>p112</t>
+  </si>
+  <si>
+    <t>p135</t>
+  </si>
+  <si>
+    <t>p231</t>
+  </si>
+  <si>
+    <t>p177</t>
+  </si>
+  <si>
+    <t>p104</t>
+  </si>
+  <si>
+    <t>p238</t>
+  </si>
+  <si>
+    <t>p25</t>
+  </si>
+  <si>
+    <t>p31</t>
+  </si>
+  <si>
+    <t>p7</t>
+  </si>
+  <si>
+    <t>p94</t>
+  </si>
+  <si>
+    <t>p274</t>
+  </si>
+  <si>
+    <t>p163</t>
+  </si>
+  <si>
+    <t>p241</t>
+  </si>
+  <si>
+    <t>p130</t>
+  </si>
+  <si>
+    <t>p33</t>
+  </si>
+  <si>
+    <t>p35</t>
+  </si>
+  <si>
+    <t>p142</t>
+  </si>
+  <si>
+    <t>p19</t>
+  </si>
+  <si>
+    <t>p136</t>
+  </si>
+  <si>
+    <t>p121</t>
+  </si>
+  <si>
+    <t>p184</t>
+  </si>
+  <si>
+    <t>p179</t>
+  </si>
+  <si>
+    <t>P248</t>
+  </si>
+  <si>
+    <t>P175</t>
+  </si>
+  <si>
+    <t>P279</t>
+  </si>
+  <si>
+    <t>p20</t>
+  </si>
+  <si>
+    <t>p156</t>
+  </si>
+  <si>
+    <t>p24</t>
+  </si>
+  <si>
+    <t>p261</t>
+  </si>
+  <si>
+    <t>p166</t>
+  </si>
+  <si>
+    <t>p14</t>
+  </si>
+  <si>
+    <t>p107</t>
+  </si>
+  <si>
+    <t>p252</t>
+  </si>
+  <si>
+    <t>p89</t>
+  </si>
+  <si>
+    <t>p263</t>
+  </si>
+  <si>
+    <t>p211</t>
+  </si>
+  <si>
+    <t>p176</t>
+  </si>
+  <si>
+    <t>p66</t>
+  </si>
+  <si>
+    <t>p67</t>
+  </si>
+  <si>
+    <t>p118</t>
+  </si>
+  <si>
+    <t>p16</t>
+  </si>
+  <si>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>p247</t>
+  </si>
+  <si>
+    <t>p232</t>
+  </si>
+  <si>
+    <t>p208</t>
+  </si>
+  <si>
+    <t>p234</t>
+  </si>
+  <si>
+    <t>p220</t>
+  </si>
+  <si>
+    <t>p227</t>
+  </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p275</t>
+  </si>
+  <si>
+    <t>p225</t>
+  </si>
+  <si>
+    <t>p69</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>p209</t>
+  </si>
+  <si>
+    <t>P193</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P134</t>
+  </si>
+  <si>
+    <t>P259</t>
+  </si>
+  <si>
+    <t>P271</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P226</t>
+  </si>
+  <si>
+    <t>P100</t>
+  </si>
+  <si>
+    <t>P223</t>
+  </si>
+  <si>
+    <t>P126</t>
+  </si>
+  <si>
+    <t>P149</t>
+  </si>
+  <si>
+    <t>P23</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>P169</t>
+  </si>
+  <si>
+    <t>P236</t>
+  </si>
+  <si>
+    <t>P265</t>
+  </si>
+  <si>
+    <t>P216</t>
+  </si>
+  <si>
+    <t>P199</t>
+  </si>
+  <si>
+    <t>P145</t>
+  </si>
+  <si>
+    <t>P192</t>
+  </si>
+  <si>
+    <t>P73</t>
+  </si>
+  <si>
+    <t>P157</t>
+  </si>
+  <si>
+    <t>P153</t>
+  </si>
+  <si>
+    <t>P110</t>
+  </si>
+  <si>
+    <t>p217</t>
+  </si>
+  <si>
+    <t>p132</t>
+  </si>
+  <si>
+    <t>p98</t>
+  </si>
+  <si>
+    <t>p178</t>
+  </si>
+  <si>
+    <t>p255</t>
+  </si>
+  <si>
+    <t>p92</t>
+  </si>
+  <si>
+    <t>p124</t>
+  </si>
+  <si>
+    <t>p12</t>
+  </si>
+  <si>
+    <t>p72</t>
+  </si>
+  <si>
+    <t>P56</t>
+  </si>
+  <si>
+    <t>p206</t>
+  </si>
+  <si>
+    <t>p143</t>
+  </si>
+  <si>
+    <t>p213</t>
+  </si>
+  <si>
+    <t>p128</t>
+  </si>
+  <si>
+    <t>p161</t>
+  </si>
+  <si>
+    <t>p64</t>
+  </si>
+  <si>
+    <t>p215</t>
+  </si>
+  <si>
+    <t>p43</t>
+  </si>
+  <si>
+    <t>p86</t>
+  </si>
+  <si>
+    <t>p173</t>
+  </si>
+  <si>
+    <t>p111</t>
+  </si>
+  <si>
+    <t>p52</t>
+  </si>
+  <si>
+    <t>p125</t>
+  </si>
+  <si>
+    <t>p277</t>
+  </si>
+  <si>
+    <t>p151</t>
+  </si>
+  <si>
+    <t>p127</t>
+  </si>
+  <si>
+    <t>p93</t>
+  </si>
+  <si>
+    <t>p160</t>
+  </si>
+  <si>
+    <t>p68</t>
+  </si>
+  <si>
+    <t>p60</t>
+  </si>
+  <si>
+    <t>P46</t>
+  </si>
+  <si>
+    <t>p250</t>
+  </si>
+  <si>
+    <t>p90</t>
+  </si>
+  <si>
+    <t>p186</t>
+  </si>
+  <si>
+    <t>p172</t>
+  </si>
+  <si>
+    <t>p256</t>
+  </si>
+  <si>
+    <t>p44</t>
+  </si>
+  <si>
+    <t>p42</t>
+  </si>
+  <si>
+    <t>p50</t>
+  </si>
+  <si>
+    <t>p195</t>
+  </si>
+  <si>
+    <t>p170</t>
+  </si>
+  <si>
+    <t>p204</t>
+  </si>
+  <si>
+    <t>p155</t>
+  </si>
+  <si>
+    <t>p230</t>
+  </si>
+  <si>
+    <t>p190</t>
+  </si>
+  <si>
+    <t>p103</t>
+  </si>
+  <si>
+    <t>p240</t>
+  </si>
+  <si>
+    <t>p273</t>
+  </si>
+  <si>
+    <t>p37</t>
+  </si>
+  <si>
+    <t>p75</t>
+  </si>
+  <si>
+    <t>p198</t>
+  </si>
+  <si>
+    <t>p48</t>
+  </si>
+  <si>
+    <t>p40</t>
+  </si>
+  <si>
+    <t>p237</t>
+  </si>
+  <si>
+    <t>p140</t>
+  </si>
+  <si>
+    <t>p197</t>
+  </si>
+  <si>
+    <t>P191</t>
+  </si>
+  <si>
+    <t>P243</t>
+  </si>
+  <si>
+    <t>P82</t>
+  </si>
+  <si>
+    <t>P280</t>
+  </si>
+  <si>
+    <t>P62</t>
+  </si>
+  <si>
+    <t>P267</t>
+  </si>
+  <si>
+    <t>P77</t>
+  </si>
+  <si>
+    <t>P202</t>
+  </si>
+  <si>
+    <t>P189</t>
+  </si>
+  <si>
+    <t>P53</t>
+  </si>
+  <si>
+    <t>P257</t>
+  </si>
+  <si>
+    <t>P55</t>
+  </si>
+  <si>
+    <t>P45</t>
+  </si>
+  <si>
+    <t>P138</t>
+  </si>
+  <si>
+    <t>P106</t>
+  </si>
+  <si>
+    <t>P221</t>
+  </si>
+  <si>
+    <t>P85</t>
+  </si>
+  <si>
+    <t>P224</t>
+  </si>
+  <si>
+    <t>p200</t>
+  </si>
+  <si>
+    <t>p139</t>
+  </si>
+  <si>
+    <t>p116</t>
+  </si>
+  <si>
+    <t>p212</t>
+  </si>
+  <si>
+    <t>p222</t>
+  </si>
+  <si>
+    <t>p152</t>
+  </si>
+  <si>
+    <t>p270</t>
+  </si>
+  <si>
+    <t>p61</t>
+  </si>
+  <si>
+    <t>p87</t>
+  </si>
+  <si>
+    <t>p59</t>
+  </si>
+  <si>
+    <t>p246</t>
+  </si>
+  <si>
+    <t>p183</t>
+  </si>
+  <si>
+    <t>p58</t>
+  </si>
+  <si>
     <t>Narko</t>
   </si>
   <si>
-    <t>p203</t>
-  </si>
-  <si>
     <t>narko</t>
   </si>
   <si>
-    <t>p29</t>
-  </si>
-  <si>
-    <t>p120</t>
-  </si>
-  <si>
-    <t>p201</t>
-  </si>
-  <si>
-    <t>p28</t>
-  </si>
-  <si>
-    <t>p65</t>
-  </si>
-  <si>
-    <t>p239</t>
-  </si>
-  <si>
-    <t>p141</t>
-  </si>
-  <si>
-    <t>p180</t>
-  </si>
-  <si>
-    <t>p182</t>
-  </si>
-  <si>
-    <t>p51</t>
-  </si>
-  <si>
-    <t>p272</t>
-  </si>
-  <si>
-    <t>p276</t>
-  </si>
-  <si>
-    <t>P26</t>
-  </si>
-  <si>
-    <t>p188</t>
-  </si>
-  <si>
-    <t>p123</t>
-  </si>
-  <si>
-    <t>p34</t>
-  </si>
-  <si>
-    <t>p9</t>
-  </si>
-  <si>
-    <t>p207</t>
-  </si>
-  <si>
-    <t>p15</t>
-  </si>
-  <si>
-    <t>p3</t>
-  </si>
-  <si>
-    <t>p233</t>
-  </si>
-  <si>
-    <t>p249</t>
-  </si>
-  <si>
-    <t>p264</t>
-  </si>
-  <si>
-    <t>p41</t>
-  </si>
-  <si>
-    <t>p196</t>
-  </si>
-  <si>
-    <t>p148</t>
-  </si>
-  <si>
-    <t>p84</t>
-  </si>
-  <si>
-    <t>p70</t>
-  </si>
-  <si>
-    <t>p154</t>
-  </si>
-  <si>
-    <t>P47</t>
-  </si>
-  <si>
-    <t>P137</t>
-  </si>
-  <si>
-    <t>p38</t>
-  </si>
-  <si>
-    <t>p158</t>
-  </si>
-  <si>
-    <t>p168</t>
-  </si>
-  <si>
-    <t>p57</t>
-  </si>
-  <si>
-    <t>p187</t>
-  </si>
-  <si>
-    <t>p218</t>
-  </si>
-  <si>
-    <t>p63</t>
-  </si>
-  <si>
-    <t>p258</t>
-  </si>
-  <si>
-    <t>p80</t>
-  </si>
-  <si>
-    <t>p96</t>
-  </si>
-  <si>
-    <t>p129</t>
-  </si>
-  <si>
-    <t>p174</t>
-  </si>
-  <si>
-    <t>p88</t>
-  </si>
-  <si>
-    <t>p78</t>
-  </si>
-  <si>
-    <t>p219</t>
-  </si>
-  <si>
-    <t>p210</t>
-  </si>
-  <si>
-    <t>p13</t>
-  </si>
-  <si>
-    <t>p278</t>
-  </si>
-  <si>
-    <t>p254</t>
-  </si>
-  <si>
-    <t>p109</t>
-  </si>
-  <si>
-    <t>p76</t>
-  </si>
-  <si>
-    <t>p117</t>
-  </si>
-  <si>
-    <t>p11</t>
-  </si>
-  <si>
-    <t>p54</t>
-  </si>
-  <si>
-    <t>p95</t>
-  </si>
-  <si>
-    <t>p30</t>
-  </si>
-  <si>
-    <t>p242</t>
-  </si>
-  <si>
-    <t>p108</t>
-  </si>
-  <si>
-    <t>p115</t>
-  </si>
-  <si>
-    <t>p185</t>
-  </si>
-  <si>
-    <t>p36</t>
-  </si>
-  <si>
-    <t>p235</t>
-  </si>
-  <si>
-    <t>p133</t>
-  </si>
-  <si>
-    <t>p251</t>
-  </si>
-  <si>
-    <t>p171</t>
-  </si>
-  <si>
-    <t>p102</t>
-  </si>
-  <si>
-    <t>p165</t>
-  </si>
-  <si>
-    <t>p119</t>
-  </si>
-  <si>
-    <t>P83</t>
-  </si>
-  <si>
-    <t>P228</t>
-  </si>
-  <si>
-    <t>P97</t>
-  </si>
-  <si>
-    <t>P21</t>
-  </si>
-  <si>
-    <t>P150</t>
-  </si>
-  <si>
-    <t>P260</t>
-  </si>
-  <si>
-    <t>P113</t>
-  </si>
-  <si>
-    <t>P39</t>
-  </si>
-  <si>
-    <t>P8</t>
-  </si>
-  <si>
-    <t>P81</t>
-  </si>
-  <si>
-    <t>P146</t>
-  </si>
-  <si>
-    <t>P269</t>
-  </si>
-  <si>
-    <t>P164</t>
-  </si>
-  <si>
-    <t>P253</t>
-  </si>
-  <si>
-    <t>P268</t>
-  </si>
-  <si>
-    <t>P27</t>
-  </si>
-  <si>
-    <t>P181</t>
-  </si>
-  <si>
-    <t>P114</t>
-  </si>
-  <si>
-    <t>P214</t>
-  </si>
-  <si>
-    <t>P229</t>
-  </si>
-  <si>
-    <t>P205</t>
-  </si>
-  <si>
-    <t>p194</t>
-  </si>
-  <si>
-    <t>p22</t>
-  </si>
-  <si>
-    <t>p167</t>
-  </si>
-  <si>
-    <t>p122</t>
-  </si>
-  <si>
-    <t>p244</t>
-  </si>
-  <si>
-    <t>p105</t>
-  </si>
-  <si>
-    <t>p74</t>
-  </si>
-  <si>
-    <t>p266</t>
-  </si>
-  <si>
-    <t>p91</t>
-  </si>
-  <si>
-    <t>p32</t>
-  </si>
-  <si>
-    <t>p162</t>
-  </si>
-  <si>
-    <t>p49</t>
-  </si>
-  <si>
-    <t>p131</t>
-  </si>
-  <si>
-    <t>p159</t>
-  </si>
-  <si>
-    <t>p245</t>
-  </si>
-  <si>
-    <t>p147</t>
-  </si>
-  <si>
-    <t>p101</t>
-  </si>
-  <si>
     <t>psiko</t>
   </si>
   <si>
-    <t>p71</t>
-  </si>
-  <si>
-    <t>p79</t>
-  </si>
-  <si>
-    <t>p18</t>
-  </si>
-  <si>
     <t>Psiko</t>
   </si>
   <si>
-    <t>p144</t>
-  </si>
-  <si>
-    <t>p99</t>
-  </si>
-  <si>
-    <t>p112</t>
-  </si>
-  <si>
-    <t>p135</t>
-  </si>
-  <si>
-    <t>p231</t>
-  </si>
-  <si>
-    <t>p177</t>
-  </si>
-  <si>
-    <t>p104</t>
-  </si>
-  <si>
-    <t>p238</t>
-  </si>
-  <si>
-    <t>p25</t>
-  </si>
-  <si>
-    <t>p31</t>
-  </si>
-  <si>
-    <t>p7</t>
-  </si>
-  <si>
-    <t>p94</t>
-  </si>
-  <si>
-    <t>p274</t>
-  </si>
-  <si>
-    <t>p163</t>
-  </si>
-  <si>
-    <t>p241</t>
-  </si>
-  <si>
-    <t>p130</t>
-  </si>
-  <si>
-    <t>p33</t>
-  </si>
-  <si>
-    <t>p35</t>
-  </si>
-  <si>
-    <t>p142</t>
-  </si>
-  <si>
-    <t>p19</t>
-  </si>
-  <si>
-    <t>p136</t>
-  </si>
-  <si>
-    <t>p121</t>
-  </si>
-  <si>
-    <t>p184</t>
-  </si>
-  <si>
-    <t>p179</t>
-  </si>
-  <si>
-    <t>P248</t>
-  </si>
-  <si>
-    <t>P175</t>
-  </si>
-  <si>
-    <t>P279</t>
-  </si>
-  <si>
-    <t>p20</t>
-  </si>
-  <si>
-    <t>p156</t>
-  </si>
-  <si>
-    <t>p24</t>
-  </si>
-  <si>
-    <t>p261</t>
-  </si>
-  <si>
-    <t>p166</t>
-  </si>
-  <si>
-    <t>p14</t>
-  </si>
-  <si>
-    <t>p107</t>
-  </si>
-  <si>
-    <t>p252</t>
-  </si>
-  <si>
-    <t>p89</t>
-  </si>
-  <si>
-    <t>p263</t>
-  </si>
-  <si>
-    <t>p211</t>
-  </si>
-  <si>
-    <t>p176</t>
-  </si>
-  <si>
-    <t>p66</t>
-  </si>
-  <si>
-    <t>p67</t>
-  </si>
-  <si>
-    <t>p118</t>
-  </si>
-  <si>
-    <t>p16</t>
-  </si>
-  <si>
-    <t>p6</t>
-  </si>
-  <si>
-    <t>p247</t>
-  </si>
-  <si>
-    <t>p232</t>
-  </si>
-  <si>
-    <t>p208</t>
-  </si>
-  <si>
-    <t>p234</t>
-  </si>
-  <si>
-    <t>p220</t>
-  </si>
-  <si>
-    <t>p227</t>
-  </si>
-  <si>
-    <t>p5</t>
-  </si>
-  <si>
-    <t>p1</t>
-  </si>
-  <si>
-    <t>p275</t>
-  </si>
-  <si>
-    <t>p225</t>
-  </si>
-  <si>
-    <t>p69</t>
-  </si>
-  <si>
-    <t>p4</t>
-  </si>
-  <si>
-    <t>p209</t>
-  </si>
-  <si>
-    <t>P193</t>
-  </si>
-  <si>
-    <t>P10</t>
-  </si>
-  <si>
-    <t>P134</t>
-  </si>
-  <si>
-    <t>P259</t>
-  </si>
-  <si>
-    <t>P271</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>P226</t>
-  </si>
-  <si>
-    <t>P100</t>
-  </si>
-  <si>
-    <t>P223</t>
-  </si>
-  <si>
-    <t>P126</t>
-  </si>
-  <si>
-    <t>P149</t>
-  </si>
-  <si>
-    <t>P23</t>
-  </si>
-  <si>
-    <t>P17</t>
-  </si>
-  <si>
-    <t>P169</t>
-  </si>
-  <si>
-    <t>P236</t>
-  </si>
-  <si>
-    <t>P265</t>
-  </si>
-  <si>
-    <t>P216</t>
-  </si>
-  <si>
-    <t>P199</t>
-  </si>
-  <si>
-    <t>P145</t>
-  </si>
-  <si>
-    <t>P192</t>
-  </si>
-  <si>
-    <t>P73</t>
-  </si>
-  <si>
-    <t>P157</t>
-  </si>
-  <si>
-    <t>P153</t>
-  </si>
-  <si>
-    <t>P110</t>
-  </si>
-  <si>
-    <t>p217</t>
-  </si>
-  <si>
-    <t>p132</t>
-  </si>
-  <si>
-    <t>p98</t>
-  </si>
-  <si>
-    <t>p178</t>
-  </si>
-  <si>
-    <t>p255</t>
-  </si>
-  <si>
-    <t>p92</t>
-  </si>
-  <si>
-    <t>p124</t>
-  </si>
-  <si>
-    <t>p12</t>
-  </si>
-  <si>
-    <t>p72</t>
-  </si>
-  <si>
-    <t>P56</t>
-  </si>
-  <si>
     <t>Zat Adiktif</t>
-  </si>
-  <si>
-    <t>p206</t>
-  </si>
-  <si>
-    <t>p143</t>
-  </si>
-  <si>
-    <t>p213</t>
-  </si>
-  <si>
-    <t>p128</t>
-  </si>
-  <si>
-    <t>p161</t>
-  </si>
-  <si>
-    <t>p64</t>
-  </si>
-  <si>
-    <t>p215</t>
-  </si>
-  <si>
-    <t>p43</t>
-  </si>
-  <si>
-    <t>p86</t>
-  </si>
-  <si>
-    <t>p173</t>
-  </si>
-  <si>
-    <t>p111</t>
-  </si>
-  <si>
-    <t>p52</t>
-  </si>
-  <si>
-    <t>p125</t>
-  </si>
-  <si>
-    <t>p277</t>
-  </si>
-  <si>
-    <t>p151</t>
-  </si>
-  <si>
-    <t>p127</t>
-  </si>
-  <si>
-    <t>p93</t>
-  </si>
-  <si>
-    <t>p160</t>
-  </si>
-  <si>
-    <t>p68</t>
-  </si>
-  <si>
-    <t>p60</t>
-  </si>
-  <si>
-    <t>P46</t>
-  </si>
-  <si>
-    <t>p250</t>
-  </si>
-  <si>
-    <t>p90</t>
-  </si>
-  <si>
-    <t>p186</t>
-  </si>
-  <si>
-    <t>p172</t>
-  </si>
-  <si>
-    <t>p256</t>
-  </si>
-  <si>
-    <t>p44</t>
-  </si>
-  <si>
-    <t>p42</t>
-  </si>
-  <si>
-    <t>p50</t>
-  </si>
-  <si>
-    <t>p195</t>
-  </si>
-  <si>
-    <t>p170</t>
-  </si>
-  <si>
-    <t>p204</t>
-  </si>
-  <si>
-    <t>p155</t>
-  </si>
-  <si>
-    <t>p230</t>
-  </si>
-  <si>
-    <t>p190</t>
-  </si>
-  <si>
-    <t>p103</t>
-  </si>
-  <si>
-    <t>p240</t>
-  </si>
-  <si>
-    <t>p273</t>
-  </si>
-  <si>
-    <t>p37</t>
-  </si>
-  <si>
-    <t>p75</t>
-  </si>
-  <si>
-    <t>p198</t>
-  </si>
-  <si>
-    <t>p48</t>
-  </si>
-  <si>
-    <t>p40</t>
-  </si>
-  <si>
-    <t>p237</t>
-  </si>
-  <si>
-    <t>p140</t>
-  </si>
-  <si>
-    <t>p197</t>
-  </si>
-  <si>
-    <t>P191</t>
-  </si>
-  <si>
-    <t>P243</t>
-  </si>
-  <si>
-    <t>P82</t>
-  </si>
-  <si>
-    <t>P280</t>
-  </si>
-  <si>
-    <t>P62</t>
-  </si>
-  <si>
-    <t>P267</t>
-  </si>
-  <si>
-    <t>P77</t>
-  </si>
-  <si>
-    <t>P202</t>
-  </si>
-  <si>
-    <t>P189</t>
-  </si>
-  <si>
-    <t>P53</t>
-  </si>
-  <si>
-    <t>P257</t>
-  </si>
-  <si>
-    <t>P55</t>
-  </si>
-  <si>
-    <t>P45</t>
-  </si>
-  <si>
-    <t>P138</t>
-  </si>
-  <si>
-    <t>P106</t>
-  </si>
-  <si>
-    <t>P221</t>
-  </si>
-  <si>
-    <t>P85</t>
-  </si>
-  <si>
-    <t>P224</t>
-  </si>
-  <si>
-    <t>p200</t>
-  </si>
-  <si>
-    <t>p139</t>
-  </si>
-  <si>
-    <t>p116</t>
-  </si>
-  <si>
-    <t>p212</t>
-  </si>
-  <si>
-    <t>p222</t>
-  </si>
-  <si>
-    <t>p152</t>
-  </si>
-  <si>
-    <t>p270</t>
-  </si>
-  <si>
-    <t>p61</t>
-  </si>
-  <si>
-    <t>p87</t>
-  </si>
-  <si>
-    <t>p59</t>
-  </si>
-  <si>
-    <t>p246</t>
-  </si>
-  <si>
-    <t>p183</t>
-  </si>
-  <si>
-    <t>p58</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="22">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -894,356 +888,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1266,251 +923,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1518,63 +933,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1857,24 +1220,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="11.25" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:20">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -1992,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2000,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0.5</v>
@@ -2054,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>3</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -2062,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -2116,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -2124,7 +1482,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2178,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -2186,7 +1544,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>0.5</v>
@@ -2240,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>3</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -2248,7 +1606,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>0.75</v>
@@ -2302,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>3</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -2310,7 +1668,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>0.25</v>
@@ -2364,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -2372,7 +1730,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>0.25</v>
@@ -2426,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -2434,7 +1792,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>0.25</v>
@@ -2488,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -2496,7 +1854,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>0.5</v>
@@ -2550,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -2558,7 +1916,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>0.25</v>
@@ -2612,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>3</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -2620,7 +1978,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>0.25</v>
@@ -2674,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -2682,7 +2040,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>0.25</v>
@@ -2736,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -2744,7 +2102,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2798,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -2806,7 +2164,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.25</v>
@@ -2860,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -2868,7 +2226,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>0.25</v>
@@ -2922,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -2930,7 +2288,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>0.25</v>
@@ -2984,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -2992,7 +2350,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>0.25</v>
@@ -3046,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -3054,7 +2412,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>0.75</v>
@@ -3108,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -3116,7 +2474,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -3170,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -3178,7 +2536,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -3232,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -3240,7 +2598,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>0.5</v>
@@ -3294,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -3302,7 +2660,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3356,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -3364,7 +2722,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>0.5</v>
@@ -3418,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -3426,7 +2784,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26">
         <v>0.25</v>
@@ -3480,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -3488,7 +2846,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27">
         <v>0.75</v>
@@ -3542,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -3550,7 +2908,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28">
         <v>0.75</v>
@@ -3604,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -3612,7 +2970,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>0.75</v>
@@ -3666,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -3674,7 +3032,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>0.5</v>
@@ -3728,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -3736,7 +3094,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31">
         <v>0.75</v>
@@ -3790,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -3798,7 +3156,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3852,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -3860,7 +3218,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33">
         <v>0.75</v>
@@ -3914,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -3922,7 +3280,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34">
         <v>0.5</v>
@@ -3976,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -3984,7 +3342,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35">
         <v>0.5</v>
@@ -4038,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -4046,7 +3404,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36">
         <v>0.75</v>
@@ -4100,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -4108,7 +3466,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>0.25</v>
@@ -4162,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -4170,7 +3528,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C38">
         <v>0.25</v>
@@ -4224,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -4232,7 +3590,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39">
         <v>0.75</v>
@@ -4286,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -4294,7 +3652,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40">
         <v>0.25</v>
@@ -4348,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -4356,7 +3714,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41">
         <v>0.75</v>
@@ -4410,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -4418,7 +3776,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C42">
         <v>0.75</v>
@@ -4472,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -4480,7 +3838,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C43">
         <v>0.75</v>
@@ -4534,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -4542,7 +3900,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C44">
         <v>0.75</v>
@@ -4596,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -4604,7 +3962,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -4658,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -4666,7 +4024,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46">
         <v>0.25</v>
@@ -4720,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -4728,7 +4086,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47">
         <v>0.25</v>
@@ -4782,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="T47" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -4790,7 +4148,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48">
         <v>0.5</v>
@@ -4844,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="T48" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -4852,7 +4210,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49">
         <v>0.75</v>
@@ -4906,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="T49" t="s">
-        <v>3</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -4914,7 +4272,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C50">
         <v>0.25</v>
@@ -4968,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="T50" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -4976,7 +4334,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C51">
         <v>0.5</v>
@@ -5030,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="T51" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -5038,7 +4396,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C52">
         <v>0.75</v>
@@ -5092,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="T52" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -5100,7 +4458,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C53">
         <v>0.5</v>
@@ -5154,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="T53" t="s">
-        <v>3</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -5162,7 +4520,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C54">
         <v>0.75</v>
@@ -5216,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="T54" t="s">
-        <v>3</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -5224,7 +4582,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -5278,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="T55" t="s">
-        <v>3</v>
+        <v>281</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -5286,7 +4644,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -5340,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="T56" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -5348,7 +4706,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C57">
         <v>0.25</v>
@@ -5402,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="T57" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -5410,7 +4768,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C58">
         <v>0.75</v>
@@ -5464,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="T58" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -5472,7 +4830,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C59">
         <v>0.75</v>
@@ -5526,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="T59" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -5534,7 +4892,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C60">
         <v>0.25</v>
@@ -5588,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="T60" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -5596,7 +4954,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C61">
         <v>0.25</v>
@@ -5650,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="T61" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -5658,7 +5016,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C62">
         <v>0.25</v>
@@ -5712,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="T62" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -5720,7 +5078,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C63">
         <v>0.25</v>
@@ -5774,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="T63" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -5782,7 +5140,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C64">
         <v>0.75</v>
@@ -5836,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="T64" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -5844,7 +5202,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C65">
         <v>0.5</v>
@@ -5898,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="T65" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -5906,7 +5264,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C66">
         <v>0.75</v>
@@ -5960,7 +5318,7 @@
         <v>0</v>
       </c>
       <c r="T66" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -5968,7 +5326,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -6022,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="T67" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -6030,7 +5388,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C68">
         <v>0.75</v>
@@ -6084,7 +5442,7 @@
         <v>0</v>
       </c>
       <c r="T68" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -6092,7 +5450,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C69">
         <v>0.75</v>
@@ -6146,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="T69" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -6154,7 +5512,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C70">
         <v>0.5</v>
@@ -6208,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="T70" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -6216,7 +5574,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C71">
         <v>0.5</v>
@@ -6270,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="T71" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -6278,7 +5636,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C72">
         <v>0.5</v>
@@ -6332,7 +5690,7 @@
         <v>0</v>
       </c>
       <c r="T72" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -6340,7 +5698,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C73">
         <v>0.75</v>
@@ -6394,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="T73" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -6402,7 +5760,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C74">
         <v>0.75</v>
@@ -6456,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="T74" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -6464,7 +5822,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -6518,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="T75" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -6526,7 +5884,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C76">
         <v>0.75</v>
@@ -6580,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="T76" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -6588,7 +5946,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C77">
         <v>0.25</v>
@@ -6642,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="T77" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -6650,7 +6008,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C78">
         <v>0.75</v>
@@ -6704,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="T78" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -6712,7 +6070,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C79">
         <v>0.5</v>
@@ -6766,7 +6124,7 @@
         <v>0</v>
       </c>
       <c r="T79" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -6774,7 +6132,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C80">
         <v>0.75</v>
@@ -6828,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="T80" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -6836,7 +6194,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C81">
         <v>0.75</v>
@@ -6890,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="T81" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -6898,7 +6256,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C82">
         <v>0.75</v>
@@ -6952,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="T82" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -6960,7 +6318,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -7014,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="T83" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -7022,7 +6380,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -7076,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="T84" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -7084,7 +6442,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C85">
         <v>0.75</v>
@@ -7138,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="T85" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -7146,7 +6504,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -7200,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="T86" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -7208,7 +6566,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C87">
         <v>0.5</v>
@@ -7262,7 +6620,7 @@
         <v>0</v>
       </c>
       <c r="T87" t="s">
-        <v>3</v>
+        <v>281</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -7270,7 +6628,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C88">
         <v>0.5</v>
@@ -7324,7 +6682,7 @@
         <v>0</v>
       </c>
       <c r="T88" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -7332,7 +6690,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C89">
         <v>0.75</v>
@@ -7386,7 +6744,7 @@
         <v>0</v>
       </c>
       <c r="T89" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -7394,7 +6752,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7448,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="T90" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -7456,7 +6814,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -7510,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="T91" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -7518,7 +6876,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C92">
         <v>0.5</v>
@@ -7572,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="T92" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -7580,7 +6938,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C93">
         <v>0.25</v>
@@ -7634,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="T93" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -7642,7 +7000,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C94">
         <v>0.25</v>
@@ -7696,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="T94" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -7704,7 +7062,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C95">
         <v>0.25</v>
@@ -7758,7 +7116,7 @@
         <v>0</v>
       </c>
       <c r="T95" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -7766,7 +7124,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C96">
         <v>0.75</v>
@@ -7820,7 +7178,7 @@
         <v>0</v>
       </c>
       <c r="T96" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -7828,7 +7186,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C97">
         <v>0.5</v>
@@ -7882,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="T97" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -7890,7 +7248,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C98">
         <v>0.5</v>
@@ -7944,7 +7302,7 @@
         <v>0</v>
       </c>
       <c r="T98" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -7952,7 +7310,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C99">
         <v>0.5</v>
@@ -8006,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="T99" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -8014,7 +7372,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C100">
         <v>0.75</v>
@@ -8068,7 +7426,7 @@
         <v>0</v>
       </c>
       <c r="T100" t="s">
-        <v>3</v>
+        <v>281</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -8076,7 +7434,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8130,7 +7488,7 @@
         <v>0</v>
       </c>
       <c r="T101" t="s">
-        <v>3</v>
+        <v>281</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -8138,7 +7496,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C102">
         <v>0.75</v>
@@ -8192,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="T102" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="1:20">
@@ -8200,7 +7558,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C103">
         <v>0.75</v>
@@ -8254,7 +7612,7 @@
         <v>0</v>
       </c>
       <c r="T103" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="104" spans="1:20">
@@ -8262,7 +7620,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C104">
         <v>0.5</v>
@@ -8316,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="T104" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="105" spans="1:20">
@@ -8324,7 +7682,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C105">
         <v>0.75</v>
@@ -8378,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="T105" t="s">
-        <v>3</v>
+        <v>281</v>
       </c>
     </row>
     <row r="106" spans="1:20">
@@ -8386,7 +7744,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C106">
         <v>0.5</v>
@@ -8440,7 +7798,7 @@
         <v>0</v>
       </c>
       <c r="T106" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="107" spans="1:20">
@@ -8448,7 +7806,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8502,7 +7860,7 @@
         <v>0</v>
       </c>
       <c r="T107" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="108" spans="1:20">
@@ -8510,7 +7868,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C108">
         <v>0.25</v>
@@ -8564,7 +7922,7 @@
         <v>0</v>
       </c>
       <c r="T108" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="109" spans="1:20">
@@ -8572,7 +7930,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C109">
         <v>0.75</v>
@@ -8626,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="T109" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="110" spans="1:20">
@@ -8634,7 +7992,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C110">
         <v>0.75</v>
@@ -8688,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="T110" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="111" spans="1:20">
@@ -8696,7 +8054,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C111">
         <v>0.25</v>
@@ -8750,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="T111" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="112" spans="1:20">
@@ -8758,7 +8116,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C112">
         <v>0.5</v>
@@ -8812,7 +8170,7 @@
         <v>0</v>
       </c>
       <c r="T112" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="113" spans="1:20">
@@ -8820,7 +8178,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C113">
         <v>0.25</v>
@@ -8874,7 +8232,7 @@
         <v>0</v>
       </c>
       <c r="T113" t="s">
-        <v>115</v>
+        <v>283</v>
       </c>
     </row>
     <row r="114" spans="1:20">
@@ -8882,7 +8240,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C114">
         <v>0.75</v>
@@ -8936,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="T114" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="115" spans="1:20">
@@ -8944,7 +8302,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C115">
         <v>0.75</v>
@@ -8998,7 +8356,7 @@
         <v>0</v>
       </c>
       <c r="T115" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="116" spans="1:20">
@@ -9006,7 +8364,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -9060,7 +8418,7 @@
         <v>0</v>
       </c>
       <c r="T116" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="117" spans="1:20">
@@ -9068,7 +8426,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C117">
         <v>0.5</v>
@@ -9122,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="T117" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="118" spans="1:20">
@@ -9130,7 +8488,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C118">
         <v>0.25</v>
@@ -9184,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="T118" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="119" spans="1:20">
@@ -9192,7 +8550,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9246,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="T119" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="120" spans="1:20">
@@ -9254,7 +8612,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C120">
         <v>0.25</v>
@@ -9308,7 +8666,7 @@
         <v>0</v>
       </c>
       <c r="T120" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="121" spans="1:20">
@@ -9316,7 +8674,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C121">
         <v>0.25</v>
@@ -9370,7 +8728,7 @@
         <v>0</v>
       </c>
       <c r="T121" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="122" spans="1:20">
@@ -9378,7 +8736,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C122">
         <v>0.5</v>
@@ -9432,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="T122" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="123" spans="1:20">
@@ -9440,7 +8798,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C123">
         <v>0.25</v>
@@ -9494,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="T123" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="124" spans="1:20">
@@ -9502,7 +8860,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C124">
         <v>0.25</v>
@@ -9556,7 +8914,7 @@
         <v>0</v>
       </c>
       <c r="T124" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="125" spans="1:20">
@@ -9564,7 +8922,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C125">
         <v>0.25</v>
@@ -9618,7 +8976,7 @@
         <v>0</v>
       </c>
       <c r="T125" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="126" spans="1:20">
@@ -9626,7 +8984,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C126">
         <v>0.5</v>
@@ -9680,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="T126" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="127" spans="1:20">
@@ -9688,7 +9046,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C127">
         <v>0.5</v>
@@ -9742,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="T127" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="128" spans="1:20">
@@ -9750,7 +9108,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C128">
         <v>0.75</v>
@@ -9804,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="T128" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="129" spans="1:20">
@@ -9812,7 +9170,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C129">
         <v>0.75</v>
@@ -9866,7 +9224,7 @@
         <v>0</v>
       </c>
       <c r="T129" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="130" spans="1:20">
@@ -9874,7 +9232,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9928,7 +9286,7 @@
         <v>0</v>
       </c>
       <c r="T130" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="131" spans="1:20">
@@ -9936,7 +9294,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C131">
         <v>0.75</v>
@@ -9990,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="T131" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="132" spans="1:20">
@@ -9998,7 +9356,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -10052,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="T132" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="133" spans="1:20">
@@ -10060,7 +9418,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C133">
         <v>0.75</v>
@@ -10114,7 +9472,7 @@
         <v>0</v>
       </c>
       <c r="T133" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="134" spans="1:20">
@@ -10122,7 +9480,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C134">
         <v>0.75</v>
@@ -10176,7 +9534,7 @@
         <v>0</v>
       </c>
       <c r="T134" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="135" spans="1:20">
@@ -10184,7 +9542,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -10238,7 +9596,7 @@
         <v>0</v>
       </c>
       <c r="T135" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="136" spans="1:20">
@@ -10246,7 +9604,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C136">
         <v>0.75</v>
@@ -10300,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="T136" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="137" spans="1:20">
@@ -10308,7 +9666,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C137">
         <v>0.5</v>
@@ -10362,7 +9720,7 @@
         <v>0</v>
       </c>
       <c r="T137" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="138" spans="1:20">
@@ -10370,7 +9728,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -10424,7 +9782,7 @@
         <v>0</v>
       </c>
       <c r="T138" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="139" spans="1:20">
@@ -10432,7 +9790,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C139">
         <v>0.5</v>
@@ -10486,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="T139" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="140" spans="1:20">
@@ -10494,7 +9852,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C140">
         <v>0.75</v>
@@ -10548,7 +9906,7 @@
         <v>0</v>
       </c>
       <c r="T140" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="141" spans="1:20">
@@ -10556,7 +9914,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C141">
         <v>0.25</v>
@@ -10610,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="T141" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="142" spans="1:20">
@@ -10618,7 +9976,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C142">
         <v>0.75</v>
@@ -10672,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="T142" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="143" spans="1:20">
@@ -10680,7 +10038,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C143">
         <v>0.75</v>
@@ -10734,7 +10092,7 @@
         <v>1</v>
       </c>
       <c r="T143" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="144" spans="1:20">
@@ -10742,7 +10100,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C144">
         <v>0.75</v>
@@ -10796,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="T144" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="145" spans="1:20">
@@ -10804,7 +10162,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C145">
         <v>0.25</v>
@@ -10858,7 +10216,7 @@
         <v>0</v>
       </c>
       <c r="T145" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="146" spans="1:20">
@@ -10866,7 +10224,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10920,7 +10278,7 @@
         <v>0</v>
       </c>
       <c r="T146" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="147" spans="1:20">
@@ -10928,7 +10286,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C147">
         <v>0.75</v>
@@ -10982,7 +10340,7 @@
         <v>0</v>
       </c>
       <c r="T147" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="148" spans="1:20">
@@ -10990,7 +10348,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C148">
         <v>0.5</v>
@@ -11044,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="T148" t="s">
-        <v>115</v>
+        <v>283</v>
       </c>
     </row>
     <row r="149" spans="1:20">
@@ -11052,7 +10410,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C149">
         <v>0.75</v>
@@ -11106,7 +10464,7 @@
         <v>0</v>
       </c>
       <c r="T149" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="150" spans="1:20">
@@ -11114,7 +10472,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C150">
         <v>0.75</v>
@@ -11168,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="T150" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="151" spans="1:20">
@@ -11176,7 +10534,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C151">
         <v>0.75</v>
@@ -11230,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="T151" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="152" spans="1:20">
@@ -11238,7 +10596,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C152">
         <v>0.75</v>
@@ -11292,7 +10650,7 @@
         <v>0</v>
       </c>
       <c r="T152" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="153" spans="1:20">
@@ -11300,7 +10658,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C153">
         <v>0.25</v>
@@ -11354,7 +10712,7 @@
         <v>0</v>
       </c>
       <c r="T153" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="154" spans="1:20">
@@ -11362,7 +10720,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C154">
         <v>0.75</v>
@@ -11416,7 +10774,7 @@
         <v>0</v>
       </c>
       <c r="T154" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="155" spans="1:20">
@@ -11424,7 +10782,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C155">
         <v>0.75</v>
@@ -11478,7 +10836,7 @@
         <v>0</v>
       </c>
       <c r="T155" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="156" spans="1:20">
@@ -11486,7 +10844,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C156">
         <v>0.75</v>
@@ -11540,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="T156" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="157" spans="1:20">
@@ -11548,7 +10906,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C157">
         <v>0.25</v>
@@ -11602,7 +10960,7 @@
         <v>0</v>
       </c>
       <c r="T157" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="158" spans="1:20">
@@ -11610,7 +10968,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C158">
         <v>0.75</v>
@@ -11664,7 +11022,7 @@
         <v>0</v>
       </c>
       <c r="T158" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="159" spans="1:20">
@@ -11672,7 +11030,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C159">
         <v>0.75</v>
@@ -11726,7 +11084,7 @@
         <v>0</v>
       </c>
       <c r="T159" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="160" spans="1:20">
@@ -11734,7 +11092,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C160">
         <v>0.75</v>
@@ -11788,7 +11146,7 @@
         <v>0</v>
       </c>
       <c r="T160" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="161" spans="1:20">
@@ -11796,7 +11154,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C161">
         <v>0.75</v>
@@ -11850,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="T161" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="162" spans="1:20">
@@ -11858,7 +11216,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C162">
         <v>0.5</v>
@@ -11912,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="T162" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="163" spans="1:20">
@@ -11920,7 +11278,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C163">
         <v>0.25</v>
@@ -11974,7 +11332,7 @@
         <v>0</v>
       </c>
       <c r="T163" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="164" spans="1:20">
@@ -11982,7 +11340,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C164">
         <v>0.25</v>
@@ -12036,7 +11394,7 @@
         <v>1</v>
       </c>
       <c r="T164" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="165" spans="1:20">
@@ -12044,7 +11402,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -12098,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="T165" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="166" spans="1:20">
@@ -12106,7 +11464,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C166">
         <v>0.75</v>
@@ -12160,7 +11518,7 @@
         <v>0</v>
       </c>
       <c r="T166" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="167" spans="1:20">
@@ -12168,7 +11526,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -12222,7 +11580,7 @@
         <v>0</v>
       </c>
       <c r="T167" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="168" spans="1:20">
@@ -12230,7 +11588,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -12284,7 +11642,7 @@
         <v>0</v>
       </c>
       <c r="T168" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="169" spans="1:20">
@@ -12292,7 +11650,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C169">
         <v>0.5</v>
@@ -12346,7 +11704,7 @@
         <v>0</v>
       </c>
       <c r="T169" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="170" spans="1:20">
@@ -12354,7 +11712,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C170">
         <v>0.75</v>
@@ -12408,7 +11766,7 @@
         <v>0</v>
       </c>
       <c r="T170" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="171" spans="1:20">
@@ -12416,7 +11774,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C171">
         <v>0.25</v>
@@ -12470,7 +11828,7 @@
         <v>0</v>
       </c>
       <c r="T171" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="172" spans="1:20">
@@ -12478,7 +11836,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C172">
         <v>0.5</v>
@@ -12532,7 +11890,7 @@
         <v>0</v>
       </c>
       <c r="T172" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="173" spans="1:20">
@@ -12540,7 +11898,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C173">
         <v>0.5</v>
@@ -12594,7 +11952,7 @@
         <v>0</v>
       </c>
       <c r="T173" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="174" spans="1:20">
@@ -12602,7 +11960,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C174">
         <v>0.75</v>
@@ -12656,7 +12014,7 @@
         <v>0</v>
       </c>
       <c r="T174" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="175" spans="1:20">
@@ -12664,7 +12022,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C175">
         <v>0.5</v>
@@ -12718,7 +12076,7 @@
         <v>0</v>
       </c>
       <c r="T175" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="176" spans="1:20">
@@ -12726,7 +12084,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C176">
         <v>0.75</v>
@@ -12780,7 +12138,7 @@
         <v>1</v>
       </c>
       <c r="T176" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="177" spans="1:20">
@@ -12788,7 +12146,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -12842,7 +12200,7 @@
         <v>0</v>
       </c>
       <c r="T177" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="178" spans="1:20">
@@ -12850,7 +12208,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -12904,7 +12262,7 @@
         <v>0</v>
       </c>
       <c r="T178" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="179" spans="1:20">
@@ -12912,7 +12270,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -12966,7 +12324,7 @@
         <v>0</v>
       </c>
       <c r="T179" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="180" spans="1:20">
@@ -12974,7 +12332,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C180">
         <v>0.25</v>
@@ -13028,7 +12386,7 @@
         <v>0</v>
       </c>
       <c r="T180" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="181" spans="1:20">
@@ -13036,7 +12394,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C181">
         <v>0.25</v>
@@ -13090,7 +12448,7 @@
         <v>0</v>
       </c>
       <c r="T181" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="182" spans="1:20">
@@ -13098,7 +12456,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C182">
         <v>0.75</v>
@@ -13152,7 +12510,7 @@
         <v>1</v>
       </c>
       <c r="T182" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="183" spans="1:20">
@@ -13160,7 +12518,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C183">
         <v>0.75</v>
@@ -13214,7 +12572,7 @@
         <v>0</v>
       </c>
       <c r="T183" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="184" spans="1:20">
@@ -13222,7 +12580,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C184">
         <v>0.25</v>
@@ -13276,7 +12634,7 @@
         <v>0</v>
       </c>
       <c r="T184" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="185" spans="1:20">
@@ -13284,7 +12642,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C185">
         <v>0.75</v>
@@ -13338,7 +12696,7 @@
         <v>0</v>
       </c>
       <c r="T185" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="186" spans="1:20">
@@ -13346,7 +12704,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C186">
         <v>0.75</v>
@@ -13400,7 +12758,7 @@
         <v>0</v>
       </c>
       <c r="T186" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="187" spans="1:20">
@@ -13408,7 +12766,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C187">
         <v>0.75</v>
@@ -13462,7 +12820,7 @@
         <v>0</v>
       </c>
       <c r="T187" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="188" spans="1:20">
@@ -13470,7 +12828,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C188">
         <v>0.5</v>
@@ -13524,7 +12882,7 @@
         <v>0</v>
       </c>
       <c r="T188" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="189" spans="1:20">
@@ -13532,7 +12890,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C189">
         <v>0.75</v>
@@ -13586,7 +12944,7 @@
         <v>0</v>
       </c>
       <c r="T189" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="190" spans="1:20">
@@ -13594,7 +12952,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -13648,7 +13006,7 @@
         <v>0</v>
       </c>
       <c r="T190" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="191" spans="1:20">
@@ -13656,7 +13014,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C191">
         <v>0.5</v>
@@ -13710,7 +13068,7 @@
         <v>0</v>
       </c>
       <c r="T191" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="192" spans="1:20">
@@ -13718,7 +13076,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -13772,7 +13130,7 @@
         <v>0</v>
       </c>
       <c r="T192" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="193" spans="1:20">
@@ -13780,7 +13138,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C193">
         <v>0.75</v>
@@ -13834,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="T193" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="194" spans="1:20">
@@ -13842,7 +13200,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C194">
         <v>0.25</v>
@@ -13896,7 +13254,7 @@
         <v>0</v>
       </c>
       <c r="T194" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="195" spans="1:20">
@@ -13904,7 +13262,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C195">
         <v>0.5</v>
@@ -13958,7 +13316,7 @@
         <v>0</v>
       </c>
       <c r="T195" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="196" spans="1:20">
@@ -13966,7 +13324,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -14020,7 +13378,7 @@
         <v>0</v>
       </c>
       <c r="T196" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="197" spans="1:20">
@@ -14028,7 +13386,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C197">
         <v>0.5</v>
@@ -14082,7 +13440,7 @@
         <v>0</v>
       </c>
       <c r="T197" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="198" spans="1:20">
@@ -14090,7 +13448,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C198">
         <v>0.75</v>
@@ -14144,7 +13502,7 @@
         <v>0</v>
       </c>
       <c r="T198" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="199" spans="1:20">
@@ -14152,7 +13510,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C199">
         <v>0.5</v>
@@ -14206,7 +13564,7 @@
         <v>0</v>
       </c>
       <c r="T199" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="200" spans="1:20">
@@ -14214,7 +13572,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C200">
         <v>0.75</v>
@@ -14268,7 +13626,7 @@
         <v>0</v>
       </c>
       <c r="T200" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="201" spans="1:20">
@@ -14276,7 +13634,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C201">
         <v>0.75</v>
@@ -14330,7 +13688,7 @@
         <v>0</v>
       </c>
       <c r="T201" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="202" spans="1:20">
@@ -14338,7 +13696,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C202">
         <v>0.25</v>
@@ -14392,7 +13750,7 @@
         <v>1</v>
       </c>
       <c r="T202" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="203" spans="1:20">
@@ -14400,7 +13758,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C203">
         <v>0.5</v>
@@ -14454,7 +13812,7 @@
         <v>0</v>
       </c>
       <c r="T203" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="204" spans="1:20">
@@ -14462,7 +13820,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C204">
         <v>0.25</v>
@@ -14516,7 +13874,7 @@
         <v>0</v>
       </c>
       <c r="T204" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="205" spans="1:20">
@@ -14524,7 +13882,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C205">
         <v>0.75</v>
@@ -14578,7 +13936,7 @@
         <v>1</v>
       </c>
       <c r="T205" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="206" spans="1:20">
@@ -14586,7 +13944,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C206">
         <v>0.75</v>
@@ -14640,7 +13998,7 @@
         <v>1</v>
       </c>
       <c r="T206" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="207" spans="1:20">
@@ -14648,7 +14006,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C207">
         <v>0.5</v>
@@ -14702,7 +14060,7 @@
         <v>0</v>
       </c>
       <c r="T207" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="208" spans="1:20">
@@ -14710,7 +14068,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C208">
         <v>0.5</v>
@@ -14764,7 +14122,7 @@
         <v>0</v>
       </c>
       <c r="T208" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="209" spans="1:20">
@@ -14772,7 +14130,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C209">
         <v>0.75</v>
@@ -14826,7 +14184,7 @@
         <v>1</v>
       </c>
       <c r="T209" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="210" spans="1:20">
@@ -14834,7 +14192,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -14888,7 +14246,7 @@
         <v>0</v>
       </c>
       <c r="T210" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="211" spans="1:20">
@@ -14896,7 +14254,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C211">
         <v>0.75</v>
@@ -14950,7 +14308,7 @@
         <v>0</v>
       </c>
       <c r="T211" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="212" spans="1:20">
@@ -14958,7 +14316,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C212">
         <v>0.25</v>
@@ -15012,7 +14370,7 @@
         <v>0</v>
       </c>
       <c r="T212" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="213" spans="1:20">
@@ -15020,7 +14378,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C213">
         <v>0.75</v>
@@ -15074,7 +14432,7 @@
         <v>0</v>
       </c>
       <c r="T213" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="214" spans="1:20">
@@ -15082,7 +14440,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C214">
         <v>0.75</v>
@@ -15136,7 +14494,7 @@
         <v>1</v>
       </c>
       <c r="T214" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="215" spans="1:20">
@@ -15144,7 +14502,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C215">
         <v>0.5</v>
@@ -15198,7 +14556,7 @@
         <v>1</v>
       </c>
       <c r="T215" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="216" spans="1:20">
@@ -15206,7 +14564,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C216">
         <v>0.75</v>
@@ -15260,7 +14618,7 @@
         <v>0</v>
       </c>
       <c r="T216" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="217" spans="1:20">
@@ -15268,7 +14626,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C217">
         <v>0.75</v>
@@ -15322,7 +14680,7 @@
         <v>1</v>
       </c>
       <c r="T217" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="218" spans="1:20">
@@ -15330,7 +14688,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -15384,7 +14742,7 @@
         <v>0</v>
       </c>
       <c r="T218" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="219" spans="1:20">
@@ -15392,7 +14750,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C219">
         <v>0.75</v>
@@ -15446,7 +14804,7 @@
         <v>1</v>
       </c>
       <c r="T219" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="220" spans="1:20">
@@ -15454,7 +14812,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C220">
         <v>0.75</v>
@@ -15508,7 +14866,7 @@
         <v>1</v>
       </c>
       <c r="T220" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="221" spans="1:20">
@@ -15516,7 +14874,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -15570,7 +14928,7 @@
         <v>0</v>
       </c>
       <c r="T221" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="222" spans="1:20">
@@ -15578,7 +14936,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C222">
         <v>0.75</v>
@@ -15632,7 +14990,7 @@
         <v>1</v>
       </c>
       <c r="T222" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="223" spans="1:20">
@@ -15640,7 +14998,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C223">
         <v>0.75</v>
@@ -15694,7 +15052,7 @@
         <v>0</v>
       </c>
       <c r="T223" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="224" spans="1:20">
@@ -15702,7 +15060,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C224">
         <v>0.5</v>
@@ -15756,7 +15114,7 @@
         <v>0</v>
       </c>
       <c r="T224" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="225" spans="1:20">
@@ -15764,7 +15122,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -15818,7 +15176,7 @@
         <v>1</v>
       </c>
       <c r="T225" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="226" spans="1:20">
@@ -15826,7 +15184,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C226">
         <v>0.75</v>
@@ -15880,7 +15238,7 @@
         <v>1</v>
       </c>
       <c r="T226" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="227" spans="1:20">
@@ -15888,7 +15246,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C227">
         <v>0.75</v>
@@ -15942,7 +15300,7 @@
         <v>0</v>
       </c>
       <c r="T227" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="228" spans="1:20">
@@ -15950,7 +15308,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C228">
         <v>0.75</v>
@@ -16004,7 +15362,7 @@
         <v>1</v>
       </c>
       <c r="T228" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="229" spans="1:20">
@@ -16012,7 +15370,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C229">
         <v>0.75</v>
@@ -16066,7 +15424,7 @@
         <v>1</v>
       </c>
       <c r="T229" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="230" spans="1:20">
@@ -16074,7 +15432,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C230">
         <v>0.75</v>
@@ -16128,7 +15486,7 @@
         <v>0</v>
       </c>
       <c r="T230" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="231" spans="1:20">
@@ -16136,7 +15494,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C231">
         <v>0.75</v>
@@ -16190,7 +15548,7 @@
         <v>0</v>
       </c>
       <c r="T231" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="232" spans="1:20">
@@ -16198,7 +15556,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C232">
         <v>0.75</v>
@@ -16252,7 +15610,7 @@
         <v>0</v>
       </c>
       <c r="T232" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="233" spans="1:20">
@@ -16260,7 +15618,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C233">
         <v>0.75</v>
@@ -16314,7 +15672,7 @@
         <v>0</v>
       </c>
       <c r="T233" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="234" spans="1:20">
@@ -16322,7 +15680,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C234">
         <v>0.5</v>
@@ -16376,7 +15734,7 @@
         <v>1</v>
       </c>
       <c r="T234" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="235" spans="1:20">
@@ -16384,7 +15742,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C235">
         <v>0.75</v>
@@ -16438,7 +15796,7 @@
         <v>1</v>
       </c>
       <c r="T235" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="236" spans="1:20">
@@ -16446,7 +15804,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C236">
         <v>0.25</v>
@@ -16500,7 +15858,7 @@
         <v>1</v>
       </c>
       <c r="T236" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="237" spans="1:20">
@@ -16508,7 +15866,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C237">
         <v>0.75</v>
@@ -16562,7 +15920,7 @@
         <v>1</v>
       </c>
       <c r="T237" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="238" spans="1:20">
@@ -16570,7 +15928,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C238">
         <v>0.75</v>
@@ -16624,7 +15982,7 @@
         <v>1</v>
       </c>
       <c r="T238" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="239" spans="1:20">
@@ -16632,7 +15990,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C239">
         <v>0.5</v>
@@ -16686,7 +16044,7 @@
         <v>0</v>
       </c>
       <c r="T239" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="240" spans="1:20">
@@ -16694,7 +16052,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C240">
         <v>0.5</v>
@@ -16748,7 +16106,7 @@
         <v>1</v>
       </c>
       <c r="T240" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="241" spans="1:20">
@@ -16756,7 +16114,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C241">
         <v>0.75</v>
@@ -16810,7 +16168,7 @@
         <v>0</v>
       </c>
       <c r="T241" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="242" spans="1:20">
@@ -16818,7 +16176,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C242">
         <v>0.75</v>
@@ -16872,7 +16230,7 @@
         <v>1</v>
       </c>
       <c r="T242" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="243" spans="1:20">
@@ -16880,7 +16238,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C243">
         <v>0.5</v>
@@ -16934,7 +16292,7 @@
         <v>0</v>
       </c>
       <c r="T243" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="244" spans="1:20">
@@ -16942,7 +16300,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C244">
         <v>0.75</v>
@@ -16996,7 +16354,7 @@
         <v>1</v>
       </c>
       <c r="T244" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="245" spans="1:20">
@@ -17004,7 +16362,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C245">
         <v>0.5</v>
@@ -17058,7 +16416,7 @@
         <v>1</v>
       </c>
       <c r="T245" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="246" spans="1:20">
@@ -17066,7 +16424,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C246">
         <v>0.75</v>
@@ -17120,7 +16478,7 @@
         <v>1</v>
       </c>
       <c r="T246" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="247" spans="1:20">
@@ -17128,7 +16486,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C247">
         <v>0.5</v>
@@ -17182,7 +16540,7 @@
         <v>0</v>
       </c>
       <c r="T247" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="248" spans="1:20">
@@ -17190,7 +16548,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -17244,7 +16602,7 @@
         <v>0</v>
       </c>
       <c r="T248" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="249" spans="1:20">
@@ -17252,7 +16610,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -17306,7 +16664,7 @@
         <v>1</v>
       </c>
       <c r="T249" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="250" spans="1:20">
@@ -17314,7 +16672,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C250">
         <v>0.75</v>
@@ -17368,7 +16726,7 @@
         <v>1</v>
       </c>
       <c r="T250" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="251" spans="1:20">
@@ -17376,7 +16734,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C251">
         <v>0.75</v>
@@ -17430,7 +16788,7 @@
         <v>1</v>
       </c>
       <c r="T251" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="252" spans="1:20">
@@ -17438,7 +16796,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C252">
         <v>0.75</v>
@@ -17492,7 +16850,7 @@
         <v>1</v>
       </c>
       <c r="T252" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="253" spans="1:20">
@@ -17500,7 +16858,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C253">
         <v>0.75</v>
@@ -17554,7 +16912,7 @@
         <v>1</v>
       </c>
       <c r="T253" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="254" spans="1:20">
@@ -17562,7 +16920,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -17616,7 +16974,7 @@
         <v>1</v>
       </c>
       <c r="T254" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="255" spans="1:20">
@@ -17624,7 +16982,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C255">
         <v>0.75</v>
@@ -17678,7 +17036,7 @@
         <v>0</v>
       </c>
       <c r="T255" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="256" spans="1:20">
@@ -17686,7 +17044,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C256">
         <v>0.75</v>
@@ -17740,7 +17098,7 @@
         <v>1</v>
       </c>
       <c r="T256" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="257" spans="1:20">
@@ -17748,7 +17106,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C257">
         <v>0.75</v>
@@ -17802,7 +17160,7 @@
         <v>1</v>
       </c>
       <c r="T257" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="258" spans="1:20">
@@ -17810,7 +17168,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C258">
         <v>0.75</v>
@@ -17864,7 +17222,7 @@
         <v>1</v>
       </c>
       <c r="T258" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="259" spans="1:20">
@@ -17872,7 +17230,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C259">
         <v>0.5</v>
@@ -17926,7 +17284,7 @@
         <v>0</v>
       </c>
       <c r="T259" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="260" spans="1:20">
@@ -17934,7 +17292,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C260">
         <v>0.75</v>
@@ -17988,7 +17346,7 @@
         <v>1</v>
       </c>
       <c r="T260" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="261" spans="1:20">
@@ -17996,7 +17354,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C261">
         <v>0.75</v>
@@ -18050,7 +17408,7 @@
         <v>0</v>
       </c>
       <c r="T261" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="262" spans="1:20">
@@ -18058,7 +17416,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C262">
         <v>0.75</v>
@@ -18112,7 +17470,7 @@
         <v>1</v>
       </c>
       <c r="T262" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="263" spans="1:20">
@@ -18120,7 +17478,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C263">
         <v>0.75</v>
@@ -18174,7 +17532,7 @@
         <v>1</v>
       </c>
       <c r="T263" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="264" spans="1:20">
@@ -18182,7 +17540,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C264">
         <v>0.25</v>
@@ -18236,7 +17594,7 @@
         <v>1</v>
       </c>
       <c r="T264" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="265" spans="1:20">
@@ -18244,7 +17602,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C265">
         <v>0.25</v>
@@ -18298,7 +17656,7 @@
         <v>0</v>
       </c>
       <c r="T265" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="266" spans="1:20">
@@ -18306,7 +17664,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C266">
         <v>0.5</v>
@@ -18360,7 +17718,7 @@
         <v>1</v>
       </c>
       <c r="T266" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="267" spans="1:20">
@@ -18368,7 +17726,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C267">
         <v>0.5</v>
@@ -18422,7 +17780,7 @@
         <v>0</v>
       </c>
       <c r="T267" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="268" spans="1:20">
@@ -18430,7 +17788,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C268">
         <v>0.75</v>
@@ -18484,7 +17842,7 @@
         <v>0</v>
       </c>
       <c r="T268" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="269" spans="1:20">
@@ -18492,7 +17850,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C269">
         <v>0.5</v>
@@ -18546,7 +17904,7 @@
         <v>1</v>
       </c>
       <c r="T269" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="270" spans="1:20">
@@ -18554,7 +17912,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C270">
         <v>0.5</v>
@@ -18608,7 +17966,7 @@
         <v>1</v>
       </c>
       <c r="T270" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="271" spans="1:20">
@@ -18616,7 +17974,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C271">
         <v>0.25</v>
@@ -18670,7 +18028,7 @@
         <v>0</v>
       </c>
       <c r="T271" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="272" spans="1:20">
@@ -18678,7 +18036,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C272">
         <v>0.25</v>
@@ -18732,7 +18090,7 @@
         <v>1</v>
       </c>
       <c r="T272" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="273" spans="1:20">
@@ -18740,7 +18098,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C273">
         <v>0.25</v>
@@ -18794,7 +18152,7 @@
         <v>1</v>
       </c>
       <c r="T273" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="274" spans="1:20">
@@ -18802,7 +18160,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C274">
         <v>0.75</v>
@@ -18856,7 +18214,7 @@
         <v>0</v>
       </c>
       <c r="T274" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="275" spans="1:20">
@@ -18864,7 +18222,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C275">
         <v>0.75</v>
@@ -18918,7 +18276,7 @@
         <v>1</v>
       </c>
       <c r="T275" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="276" spans="1:20">
@@ -18926,7 +18284,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C276">
         <v>0.25</v>
@@ -18980,7 +18338,7 @@
         <v>0</v>
       </c>
       <c r="T276" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="277" spans="1:20">
@@ -18988,7 +18346,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C277">
         <v>0.5</v>
@@ -19042,7 +18400,7 @@
         <v>1</v>
       </c>
       <c r="T277" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="278" spans="1:20">
@@ -19050,7 +18408,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -19104,7 +18462,7 @@
         <v>0</v>
       </c>
       <c r="T278" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="279" spans="1:20">
@@ -19112,7 +18470,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C279">
         <v>0.5</v>
@@ -19166,7 +18524,7 @@
         <v>0</v>
       </c>
       <c r="T279" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="280" spans="1:20">
@@ -19174,7 +18532,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C280">
         <v>0.5</v>
@@ -19228,7 +18586,7 @@
         <v>1</v>
       </c>
       <c r="T280" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="281" spans="1:20">
@@ -19236,7 +18594,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C281">
         <v>0.25</v>
@@ -19290,11 +18648,10 @@
         <v>1</v>
       </c>
       <c r="T281" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>